--- a/sriramModel-nelson-atypical-patientID_54-sims-crh-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_54-sims-crh-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.123690097931985</v>
+        <v>1.055653960848994</v>
       </c>
       <c r="C2">
-        <v>1.115599187393021</v>
+        <v>1.288534353093752</v>
       </c>
       <c r="D2">
-        <v>1.178685185754085</v>
+        <v>1.175683858649795</v>
       </c>
       <c r="E2">
-        <v>1.097093428563245</v>
+        <v>1.298297996217521</v>
       </c>
       <c r="F2">
-        <v>1.067867649625472</v>
+        <v>1.290612983187224</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.24594749740338</v>
+        <v>1.110907536632444</v>
       </c>
       <c r="C3">
-        <v>1.230515311547772</v>
+        <v>1.575359023022808</v>
       </c>
       <c r="D3">
-        <v>1.354460074828661</v>
+        <v>1.350884131255844</v>
       </c>
       <c r="E3">
-        <v>1.193053832606193</v>
+        <v>1.596301177768893</v>
       </c>
       <c r="F3">
-        <v>1.135533134464732</v>
+        <v>1.581064084166266</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.366814736066949</v>
+        <v>1.16576882129657</v>
       </c>
       <c r="C4">
-        <v>1.344763198180986</v>
+        <v>1.860694339656299</v>
       </c>
       <c r="D4">
-        <v>1.527635612527357</v>
+        <v>1.52562948967227</v>
       </c>
       <c r="E4">
-        <v>1.287925650417125</v>
+        <v>1.894027525839744</v>
       </c>
       <c r="F4">
-        <v>1.202999573043054</v>
+        <v>1.871402497048229</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.486330764113145</v>
+        <v>1.220245632144192</v>
       </c>
       <c r="C5">
-        <v>1.458356347114499</v>
+        <v>2.144719293041464</v>
       </c>
       <c r="D5">
-        <v>1.698471381761534</v>
+        <v>1.699946033742094</v>
       </c>
       <c r="E5">
-        <v>1.38175029016774</v>
+        <v>2.191493275212093</v>
       </c>
       <c r="F5">
-        <v>1.270269987871275</v>
+        <v>2.161656826390179</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.604531300088719</v>
+        <v>1.274345527542085</v>
       </c>
       <c r="C6">
-        <v>1.571307010204042</v>
+        <v>2.427581853225671</v>
       </c>
       <c r="D6">
-        <v>1.867186465653121</v>
+        <v>1.87385762840292</v>
       </c>
       <c r="E6">
-        <v>1.474566474866504</v>
+        <v>2.488713138814447</v>
       </c>
       <c r="F6">
-        <v>1.337347305661137</v>
+        <v>2.451845031211156</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.721449054071158</v>
+        <v>1.328075796355056</v>
       </c>
       <c r="C7">
-        <v>1.683626271286913</v>
+        <v>2.709405860823367</v>
       </c>
       <c r="D7">
-        <v>2.033967990609938</v>
+        <v>2.047386095265512</v>
       </c>
       <c r="E7">
-        <v>1.566410462746034</v>
+        <v>2.785700446671311</v>
       </c>
       <c r="F7">
-        <v>1.404234363090407</v>
+        <v>2.741979219121545</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.837113927546111</v>
+        <v>1.381443466240995</v>
       </c>
       <c r="C8">
-        <v>1.795324085978147</v>
+        <v>2.990295929369874</v>
       </c>
       <c r="D8">
-        <v>2.198977134699725</v>
+        <v>2.220551501464342</v>
       </c>
       <c r="E8">
-        <v>1.65731623551795</v>
+        <v>3.082467352907197</v>
       </c>
       <c r="F8">
-        <v>1.470933906540228</v>
+        <v>3.032067901126252</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.951553271706347</v>
+        <v>1.434455310421999</v>
       </c>
       <c r="C9">
-        <v>1.906409334499893</v>
+        <v>3.270341037155251</v>
       </c>
       <c r="D9">
-        <v>2.362353553161561</v>
+        <v>2.393372316530053</v>
       </c>
       <c r="E9">
-        <v>1.747315698703989</v>
+        <v>3.379024948595831</v>
       </c>
       <c r="F9">
-        <v>1.537448595824935</v>
+        <v>3.322117206117114</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.064792062204029</v>
+        <v>1.487117846701129</v>
       </c>
       <c r="C10">
-        <v>2.016889867973361</v>
+        <v>3.549617947791685</v>
       </c>
       <c r="D10">
-        <v>2.524219077639284</v>
+        <v>2.565865586257921</v>
       </c>
       <c r="E10">
-        <v>1.836438856238984</v>
+        <v>3.675383365212789</v>
       </c>
       <c r="F10">
-        <v>1.603781007709711</v>
+        <v>3.612131632585901</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.176853015245491</v>
+        <v>1.539437338121102</v>
       </c>
       <c r="C11">
-        <v>2.126772542734518</v>
+        <v>3.828193312260165</v>
       </c>
       <c r="D11">
-        <v>2.684680926216592</v>
+        <v>2.738047078359146</v>
       </c>
       <c r="E11">
-        <v>1.924713954383612</v>
+        <v>3.971551880532757</v>
       </c>
       <c r="F11">
-        <v>1.669933636756401</v>
+        <v>3.902114629256901</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.287756724203011</v>
+        <v>1.591419793079682</v>
       </c>
       <c r="C12">
-        <v>2.236063246654458</v>
+        <v>4.106125197021501</v>
       </c>
       <c r="D12">
-        <v>2.843833798007472</v>
+        <v>2.909931393429223</v>
       </c>
       <c r="E12">
-        <v>2.012167608423237</v>
+        <v>4.267539008468666</v>
       </c>
       <c r="F12">
-        <v>1.735908896660508</v>
+        <v>4.192068853976838</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.397521779337429</v>
+        <v>1.643070964393491</v>
       </c>
       <c r="C13">
-        <v>2.344766920540148</v>
+        <v>4.383464526571601</v>
       </c>
       <c r="D13">
-        <v>3.001761534899025</v>
+        <v>3.081532068132812</v>
       </c>
       <c r="E13">
-        <v>2.098824931907213</v>
+        <v>4.563352571374842</v>
       </c>
       <c r="F13">
-        <v>1.801709121627522</v>
+        <v>4.481996339196311</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.506164885997546</v>
+        <v>1.694396347464442</v>
       </c>
       <c r="C14">
-        <v>2.452887575888815</v>
+        <v>4.660256257217695</v>
       </c>
       <c r="D14">
-        <v>3.158538712706834</v>
+        <v>3.252861665286321</v>
       </c>
       <c r="E14">
-        <v>2.184709624513324</v>
+        <v>4.858999764613347</v>
       </c>
       <c r="F14">
-        <v>1.867336567584083</v>
+        <v>4.771898647949473</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.613700951382095</v>
+        <v>1.745401177439086</v>
       </c>
       <c r="C15">
-        <v>2.560428305987283</v>
+        <v>4.936540295199412</v>
       </c>
       <c r="D15">
-        <v>3.314231900589154</v>
+        <v>3.423931921713915</v>
       </c>
       <c r="E15">
-        <v>2.269844060485741</v>
+        <v>5.154487206031552</v>
       </c>
       <c r="F15">
-        <v>1.932793413070118</v>
+        <v>5.06177698699045</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.720143159747463</v>
+        <v>1.796090425057125</v>
       </c>
       <c r="C16">
-        <v>2.667391286906666</v>
+        <v>5.212352376087283</v>
       </c>
       <c r="D16">
-        <v>3.468900705156369</v>
+        <v>3.59475378230358</v>
       </c>
       <c r="E16">
-        <v>2.354249409306961</v>
+        <v>5.44982098581404</v>
       </c>
       <c r="F16">
-        <v>1.998081758508236</v>
+        <v>5.351632253718825</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.825503047228371</v>
+        <v>1.846468793257083</v>
       </c>
       <c r="C17">
-        <v>2.773777786437667</v>
+        <v>5.487724461507458</v>
       </c>
       <c r="D17">
-        <v>3.62259852571667</v>
+        <v>3.765337460471356</v>
       </c>
       <c r="E17">
-        <v>2.437945719530846</v>
+        <v>5.745006707928986</v>
       </c>
       <c r="F17">
-        <v>2.063203625734288</v>
+        <v>5.641465177693058</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.929790543028086</v>
+        <v>1.896540712327376</v>
       </c>
       <c r="C18">
-        <v>2.879588160779455</v>
+        <v>5.762685250319876</v>
       </c>
       <c r="D18">
-        <v>3.775373171350195</v>
+        <v>3.935692495487195</v>
       </c>
       <c r="E18">
-        <v>2.52095196683708</v>
+        <v>6.040049527455539</v>
       </c>
       <c r="F18">
-        <v>2.128160957091</v>
+        <v>5.931276201558996</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.033014021847189</v>
+        <v>1.946310331527853</v>
       </c>
       <c r="C19">
-        <v>2.984821841467679</v>
+        <v>6.037260614795842</v>
       </c>
       <c r="D19">
-        <v>3.927267450211407</v>
+        <v>4.105827802856657</v>
       </c>
       <c r="E19">
-        <v>2.603286106963404</v>
+        <v>6.334954202975312</v>
       </c>
       <c r="F19">
-        <v>2.192955613904816</v>
+        <v>6.221065813921583</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.135180342529276</v>
+        <v>1.99578151320277</v>
       </c>
       <c r="C20">
-        <v>3.089477320906907</v>
+        <v>6.311473953199261</v>
       </c>
       <c r="D20">
-        <v>4.078319662917083</v>
+        <v>4.27575172636169</v>
       </c>
       <c r="E20">
-        <v>2.684965137979924</v>
+        <v>6.629725106129819</v>
       </c>
       <c r="F20">
-        <v>2.257589374534775</v>
+        <v>6.510834185953225</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.236294880485213</v>
+        <v>2.044957824294436</v>
       </c>
       <c r="C21">
-        <v>3.193552133919301</v>
+        <v>6.585346526072127</v>
       </c>
       <c r="D21">
-        <v>4.228563992298426</v>
+        <v>4.44547208229299</v>
       </c>
       <c r="E21">
-        <v>2.766005161583043</v>
+        <v>6.924366248396401</v>
       </c>
       <c r="F21">
-        <v>2.322063931341686</v>
+        <v>6.800581392005909</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.336361547798863</v>
+        <v>2.09384252589486</v>
       </c>
       <c r="C22">
-        <v>3.297042834164144</v>
+        <v>6.858897730329345</v>
       </c>
       <c r="D22">
-        <v>4.378030809230029</v>
+        <v>4.614996188288451</v>
       </c>
       <c r="E22">
-        <v>2.846421421574107</v>
+        <v>7.218881302490395</v>
       </c>
       <c r="F22">
-        <v>2.386380886891469</v>
+        <v>7.090307337458237</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.435382805891081</v>
+        <v>2.142438564147659</v>
       </c>
       <c r="C23">
-        <v>3.399944964907141</v>
+        <v>7.132145287315286</v>
       </c>
       <c r="D23">
-        <v>4.526746916062574</v>
+        <v>4.784330921146463</v>
       </c>
       <c r="E23">
-        <v>2.92622835767006</v>
+        <v>7.513273615980354</v>
       </c>
       <c r="F23">
-        <v>2.450541749257277</v>
+        <v>7.380011855498124</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.533359672497162</v>
+        <v>2.190748559432467</v>
       </c>
       <c r="C24">
-        <v>3.502253024279853</v>
+        <v>7.405105420738015</v>
       </c>
       <c r="D24">
-        <v>4.674735743093835</v>
+        <v>4.953482696900675</v>
       </c>
       <c r="E24">
-        <v>3.00543960861015</v>
+        <v>7.807546232689444</v>
       </c>
       <c r="F24">
-        <v>2.514547926244544</v>
+        <v>7.669694692576654</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.630291722642776</v>
+        <v>2.238774793217976</v>
       </c>
       <c r="C25">
-        <v>3.603960423350607</v>
+        <v>7.677793014280608</v>
       </c>
       <c r="D25">
-        <v>4.8220175056047</v>
+        <v>5.122457587697942</v>
       </c>
       <c r="E25">
-        <v>3.084068103108325</v>
+        <v>8.101701904216629</v>
       </c>
       <c r="F25">
-        <v>2.578400718282316</v>
+        <v>7.959355509459776</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>3.726177080252959</v>
+        <v>2.286519193508079</v>
       </c>
       <c r="C26">
-        <v>3.705059438202452</v>
+        <v>7.950221742267237</v>
       </c>
       <c r="D26">
-        <v>4.968609326242357</v>
+        <v>5.291261224783847</v>
       </c>
       <c r="E26">
-        <v>3.162126007314175</v>
+        <v>8.395743101817532</v>
       </c>
       <c r="F26">
-        <v>2.642101310253636</v>
+        <v>8.248993882502003</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3.821012403260598</v>
+        <v>2.333983320759195</v>
       </c>
       <c r="C27">
-        <v>3.805541156131234</v>
+        <v>8.222404203054513</v>
       </c>
       <c r="D27">
-        <v>5.114525308419626</v>
+        <v>5.459898882823014</v>
       </c>
       <c r="E27">
-        <v>3.239624813793128</v>
+        <v>8.689672022030683</v>
       </c>
       <c r="F27">
-        <v>2.705650760936546</v>
+        <v>8.538609273366218</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>3.91479286401071</v>
+        <v>2.381168350992774</v>
       </c>
       <c r="C28">
-        <v>3.905395414577092</v>
+        <v>8.494352024288373</v>
       </c>
       <c r="D28">
-        <v>5.259776576672965</v>
+        <v>5.628375467631843</v>
       </c>
       <c r="E28">
-        <v>3.316575305827558</v>
+        <v>8.983490591042832</v>
       </c>
       <c r="F28">
-        <v>2.769049990910709</v>
+        <v>8.828201048229472</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>4.007512121701423</v>
+        <v>2.42807505739259</v>
       </c>
       <c r="C29">
-        <v>4.004610732391971</v>
+        <v>8.766075949811865</v>
       </c>
       <c r="D29">
-        <v>5.404371283611429</v>
+        <v>5.796695556243407</v>
       </c>
       <c r="E29">
-        <v>3.392987591566016</v>
+        <v>9.277200468341695</v>
       </c>
       <c r="F29">
-        <v>2.832299767991722</v>
+        <v>9.117768466026066</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4.099162290183003</v>
+        <v>2.4747037909456</v>
       </c>
       <c r="C30">
-        <v>4.103174232887167</v>
+        <v>9.037585919198072</v>
       </c>
       <c r="D30">
-        <v>5.54831458661144</v>
+        <v>5.964863396468046</v>
       </c>
       <c r="E30">
-        <v>3.468871116692251</v>
+        <v>9.570803047648305</v>
       </c>
       <c r="F30">
-        <v>2.89540068986086</v>
+        <v>9.407310686860395</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.189733892935571</v>
+        <v>2.521054460715399</v>
       </c>
       <c r="C31">
-        <v>4.20107155780754</v>
+        <v>9.308891130680802</v>
       </c>
       <c r="D31">
-        <v>5.691608593001945</v>
+        <v>6.132882920466523</v>
       </c>
       <c r="E31">
-        <v>3.54423464696986</v>
+        <v>9.864299455177644</v>
       </c>
       <c r="F31">
-        <v>2.958353163235649</v>
+        <v>9.696826763347541</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4.279215817240604</v>
+        <v>2.567126508512614</v>
       </c>
       <c r="C32">
-        <v>4.298286772757555</v>
+        <v>9.58000009999358</v>
       </c>
       <c r="D32">
-        <v>5.834252272638521</v>
+        <v>6.300757740169883</v>
       </c>
       <c r="E32">
-        <v>3.619086289421799</v>
+        <v>10.15769054504968</v>
       </c>
       <c r="F32">
-        <v>3.021157380024392</v>
+        <v>9.98631562935523</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4.367595258072634</v>
+        <v>2.612918884182267</v>
       </c>
       <c r="C33">
-        <v>4.39480226138183</v>
+        <v>9.85092071480017</v>
       </c>
       <c r="D33">
-        <v>5.976241336704582</v>
+        <v>6.468491144414982</v>
       </c>
       <c r="E33">
-        <v>3.69343345977007</v>
+        <v>10.45097689210521</v>
       </c>
       <c r="F33">
-        <v>3.083813287147249</v>
+        <v>10.27577609415191</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4.454857659391117</v>
+        <v>2.658430019701176</v>
       </c>
       <c r="C34">
-        <v>4.490598608616473</v>
+        <v>10.12166027730412</v>
       </c>
       <c r="D34">
-        <v>6.117568080586323</v>
+        <v>6.636086100624829</v>
       </c>
       <c r="E34">
-        <v>3.767282878154301</v>
+        <v>10.7441587821206</v>
       </c>
       <c r="F34">
-        <v>3.146320551914682</v>
+        <v>10.56520682194373</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4.540986639294437</v>
+        <v>2.703657798207469</v>
       </c>
       <c r="C35">
-        <v>4.585654472473927</v>
+        <v>10.39222554168591</v>
       </c>
       <c r="D35">
-        <v>6.25822119082926</v>
+        <v>6.803545246423869</v>
       </c>
       <c r="E35">
-        <v>3.840640545104478</v>
+        <v>11.03723619875207</v>
       </c>
       <c r="F35">
-        <v>3.208678520301321</v>
+        <v>10.85460632307448</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>4.625963914131769</v>
+        <v>2.748599521495931</v>
       </c>
       <c r="C36">
-        <v>4.679946442650671</v>
+        <v>10.66262274272004</v>
       </c>
       <c r="D36">
-        <v>6.398185509963398</v>
+        <v>6.970870882370905</v>
       </c>
       <c r="E36">
-        <v>3.913511681506039</v>
+        <v>11.33020880539498</v>
       </c>
       <c r="F36">
-        <v>3.270886166944186</v>
+        <v>11.14397293689978</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>4.709769211590582</v>
+        <v>2.793251875349112</v>
       </c>
       <c r="C37">
-        <v>4.773448885200771</v>
+        <v>10.93285761683531</v>
       </c>
       <c r="D37">
-        <v>6.537441753527926</v>
+        <v>7.138064955389575</v>
       </c>
       <c r="E37">
-        <v>3.985900732226991</v>
+        <v>11.62307592479131</v>
       </c>
       <c r="F37">
-        <v>3.332942034948897</v>
+        <v>11.43330481404162</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>4.792380179491531</v>
+        <v>2.837610893040232</v>
       </c>
       <c r="C38">
-        <v>4.866133772227084</v>
+        <v>11.20293541951057</v>
       </c>
       <c r="D38">
-        <v>6.675966177472477</v>
+        <v>7.305129044843915</v>
       </c>
       <c r="E38">
-        <v>4.057811248326584</v>
+        <v>11.91583651260747</v>
       </c>
       <c r="F38">
-        <v>3.394844166089892</v>
+        <v>11.7225998923911</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4.873772278300065</v>
+        <v>2.881671910419043</v>
       </c>
       <c r="C39">
-        <v>4.957970495067458</v>
+        <v>11.47286093365402</v>
       </c>
       <c r="D39">
-        <v>6.813730185208228</v>
+        <v>7.472064330038707</v>
       </c>
       <c r="E39">
-        <v>4.12924587095016</v>
+        <v>12.20848912855338</v>
       </c>
       <c r="F39">
-        <v>3.456590011961278</v>
+        <v>12.01185586880311</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4.953918668963421</v>
+        <v>2.92542952117904</v>
       </c>
       <c r="C40">
-        <v>5.048925661973373</v>
+        <v>11.74263847113181</v>
       </c>
       <c r="D40">
-        <v>6.950699866161104</v>
+        <v>7.638871558522357</v>
       </c>
       <c r="E40">
-        <v>4.200206206942357</v>
+        <v>12.50103189535135</v>
       </c>
       <c r="F40">
-        <v>3.518176330642136</v>
+        <v>12.3010701705823</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5.032790089978179</v>
+        <v>2.968877530385878</v>
       </c>
       <c r="C41">
-        <v>5.138962875732403</v>
+        <v>12.01227186420335</v>
       </c>
       <c r="D41">
-        <v>7.086835454331943</v>
+        <v>7.805551010017035</v>
       </c>
       <c r="E41">
-        <v>4.270692710761784</v>
+        <v>12.79346245465592</v>
       </c>
       <c r="F41">
-        <v>3.579599060707019</v>
+        <v>12.59023991375231</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5.110354727151952</v>
+        <v>3.012008896076396</v>
       </c>
       <c r="C42">
-        <v>5.228042492211231</v>
+        <v>12.28176444396463</v>
       </c>
       <c r="D42">
-        <v>7.222090694664812</v>
+        <v>7.972102444449733</v>
       </c>
       <c r="E42">
-        <v>4.340704619828636</v>
+        <v>13.08577791100795</v>
       </c>
       <c r="F42">
-        <v>3.640853168181454</v>
+        <v>12.87936185863173</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5.186578068020467</v>
+        <v>3.054815669923977</v>
       </c>
       <c r="C43">
-        <v>5.316121359946096</v>
+        <v>12.55111900723334</v>
       </c>
       <c r="D43">
-        <v>7.356412097763387</v>
+        <v>8.138525039089194</v>
       </c>
       <c r="E43">
-        <v>4.410239690233929</v>
+        <v>13.37797477164466</v>
       </c>
       <c r="F43">
-        <v>3.701932460473395</v>
+        <v>13.16843235541899</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5.261422745771529</v>
+        <v>3.097288932709733</v>
       </c>
       <c r="C44">
-        <v>5.403152538780243</v>
+        <v>12.8203377640187</v>
       </c>
       <c r="D44">
-        <v>7.489738059955504</v>
+        <v>8.304817313697981</v>
       </c>
       <c r="E44">
-        <v>4.479294024523018</v>
+        <v>13.67004886309829</v>
       </c>
       <c r="F44">
-        <v>3.762829366813448</v>
+        <v>13.45744728597718</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5.334848374240586</v>
+        <v>3.139418722460662</v>
       </c>
       <c r="C45">
-        <v>5.489084997822427</v>
+        <v>13.08942226512584</v>
       </c>
       <c r="D45">
-        <v>7.621997843584269</v>
+        <v>8.470977052105891</v>
       </c>
       <c r="E45">
-        <v>4.547861807652247</v>
+        <v>13.96199523775613</v>
       </c>
       <c r="F45">
-        <v>3.823534656032419</v>
+        <v>13.74640197797369</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5.406811371446862</v>
+        <v>3.181193956193947</v>
       </c>
       <c r="C46">
-        <v>5.573863293094171</v>
+        <v>13.35837329903323</v>
       </c>
       <c r="D46">
-        <v>7.753110349869718</v>
+        <v>8.637001174285272</v>
       </c>
       <c r="E46">
-        <v>4.615935002105572</v>
+        <v>14.25380805755933</v>
       </c>
       <c r="F46">
-        <v>3.88403710413393</v>
+        <v>14.0352911116689</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5.477264770891313</v>
+        <v>3.222602337636127</v>
       </c>
       <c r="C47">
-        <v>5.657427225539066</v>
+        <v>13.62719074291448</v>
       </c>
       <c r="D47">
-        <v>7.882982681353467</v>
+        <v>8.802885602796685</v>
       </c>
       <c r="E47">
-        <v>4.683502947068689</v>
+        <v>14.54548046367676</v>
       </c>
       <c r="F47">
-        <v>3.944323084649926</v>
+        <v>14.32410861174534</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5.546158014628181</v>
+        <v>3.263630270649752</v>
       </c>
       <c r="C48">
-        <v>5.73971148393179</v>
+        <v>13.89587336411362</v>
       </c>
       <c r="D48">
-        <v>8.011508438881444</v>
+        <v>8.968625117755852</v>
       </c>
       <c r="E48">
-        <v>4.750551851520884</v>
+        <v>14.83700440093908</v>
       </c>
       <c r="F48">
-        <v>4.0043760660917</v>
+        <v>14.61284750485076</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5.613436750946764</v>
+        <v>3.304262737851882</v>
       </c>
       <c r="C49">
-        <v>5.82064527158732</v>
+        <v>14.16441853928893</v>
       </c>
       <c r="D49">
-        <v>8.138565701933139</v>
+        <v>9.134213134819765</v>
       </c>
       <c r="E49">
-        <v>4.817064177755815</v>
+        <v>15.12837041055096</v>
       </c>
       <c r="F49">
-        <v>4.064175998647083</v>
+        <v>14.90149973930773</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5.67904260647784</v>
+        <v>3.344483184747835</v>
       </c>
       <c r="C50">
-        <v>5.900151925625021</v>
+        <v>14.43282192744967</v>
       </c>
       <c r="D50">
-        <v>8.264014635002967</v>
+        <v>9.299641452044677</v>
       </c>
       <c r="E50">
-        <v>4.883017864494724</v>
+        <v>15.41956737184952</v>
       </c>
       <c r="F50">
-        <v>4.123698584333992</v>
+        <v>15.19005596358673</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5.742912962585207</v>
+        <v>3.38427339423219</v>
       </c>
       <c r="C51">
-        <v>5.978148536798459</v>
+        <v>14.70107683603151</v>
       </c>
       <c r="D51">
-        <v>8.387694654771289</v>
+        <v>9.464899960025789</v>
       </c>
       <c r="E51">
-        <v>4.948385309163119</v>
+        <v>15.7105821985006</v>
       </c>
       <c r="F51">
-        <v>4.18291434259138</v>
+        <v>15.47850528738285</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5.804981366154132</v>
+        <v>3.423613331293692</v>
       </c>
       <c r="C52">
-        <v>6.05454622826672</v>
+        <v>14.96917355328288</v>
       </c>
       <c r="D52">
-        <v>8.509421395350614</v>
+        <v>9.629976276293531</v>
       </c>
       <c r="E52">
-        <v>5.013132504913134</v>
+        <v>16.00139944035015</v>
       </c>
       <c r="F52">
-        <v>4.241788239793915</v>
+        <v>15.76683491932897</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6.806778538526019</v>
+        <v>3.462480974247001</v>
       </c>
       <c r="C53">
-        <v>6.994748765400379</v>
+        <v>15.23709836753371</v>
       </c>
       <c r="D53">
-        <v>10.33017126929809</v>
+        <v>9.794855236826951</v>
       </c>
       <c r="E53">
-        <v>6.052146113033587</v>
+        <v>16.29200077273768</v>
       </c>
       <c r="F53">
-        <v>4.925642406030305</v>
+        <v>16.05502972714478</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7.787785178132612</v>
+        <v>3.500852132353348</v>
       </c>
       <c r="C54">
-        <v>7.916742041324619</v>
+        <v>15.50483211957707</v>
       </c>
       <c r="D54">
-        <v>12.12625697310258</v>
+        <v>9.959518299297725</v>
       </c>
       <c r="E54">
-        <v>7.082813282979115</v>
+        <v>16.58236436113281</v>
       </c>
       <c r="F54">
-        <v>5.605002105770417</v>
+        <v>16.34307164264634</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>8.74754861043666</v>
+        <v>3.538700248049685</v>
       </c>
       <c r="C55">
-        <v>8.819547061526727</v>
+        <v>15.77234825941314</v>
       </c>
       <c r="D55">
-        <v>13.89530167530029</v>
+        <v>10.12394293231111</v>
       </c>
       <c r="E55">
-        <v>8.105010670120691</v>
+        <v>16.87246414611825</v>
       </c>
       <c r="F55">
-        <v>6.27929425901322</v>
+        <v>16.63093895819713</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>9.685461331091235</v>
+        <v>3.575996142540422</v>
       </c>
       <c r="C56">
-        <v>9.702072676478226</v>
+        <v>16.03961023203798</v>
       </c>
       <c r="D56">
-        <v>15.63431058041918</v>
+        <v>10.28810155864712</v>
       </c>
       <c r="E56">
-        <v>9.118307003725013</v>
+        <v>17.16226861487671</v>
       </c>
       <c r="F56">
-        <v>6.947799210642462</v>
+        <v>16.91860537453163</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>10.60078091515285</v>
+        <v>3.612707756874435</v>
       </c>
       <c r="C57">
-        <v>10.56312396816248</v>
+        <v>16.30656785378128</v>
       </c>
       <c r="D57">
-        <v>17.33967124437333</v>
+        <v>10.45196039526528</v>
       </c>
       <c r="E57">
-        <v>10.12196041287855</v>
+        <v>17.45173951312301</v>
       </c>
       <c r="F57">
-        <v>7.609627308811207</v>
+        <v>17.20603870573396</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>11.4926423937224</v>
+        <v>3.648799882568667</v>
       </c>
       <c r="C58">
-        <v>11.40140984338415</v>
+        <v>16.57315251792184</v>
       </c>
       <c r="D58">
-        <v>19.00712139421958</v>
+        <v>10.61547832238845</v>
       </c>
       <c r="E58">
-        <v>11.11488829950545</v>
+        <v>17.7408300683819</v>
       </c>
       <c r="F58">
-        <v>8.263690551227944</v>
+        <v>17.49319913844066</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>12.36006754845704</v>
+        <v>3.684233805316772</v>
       </c>
       <c r="C59">
-        <v>12.21555144024096</v>
+        <v>16.83927089049406</v>
       </c>
       <c r="D59">
-        <v>20.63170612125767</v>
+        <v>10.77860449909083</v>
       </c>
       <c r="E59">
-        <v>12.09561426059197</v>
+        <v>18.02948256644874</v>
       </c>
       <c r="F59">
-        <v>8.908672041798644</v>
+        <v>17.78003687563804</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>13.20197241323937</v>
+        <v>3.718966944516924</v>
       </c>
       <c r="C60">
-        <v>13.00409241925046</v>
+        <v>17.10479679752167</v>
       </c>
       <c r="D60">
-        <v>22.20774459711199</v>
+        <v>10.94127624356244</v>
       </c>
       <c r="E60">
-        <v>13.06219263850716</v>
+        <v>18.31762506129737</v>
       </c>
       <c r="F60">
-        <v>9.542994224806126</v>
+        <v>18.06648889344718</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>14.01717279960686</v>
+        <v>3.752952419582776</v>
       </c>
       <c r="C61">
-        <v>13.76551245700797</v>
+        <v>17.36956101901889</v>
       </c>
       <c r="D61">
-        <v>23.72882748480782</v>
+        <v>11.10341610242633</v>
       </c>
       <c r="E61">
-        <v>14.01211184816464</v>
+        <v>18.60516691032784</v>
       </c>
       <c r="F61">
-        <v>10.16479030680834</v>
+        <v>18.35247441195917</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>14.8043909572862</v>
+        <v>3.786138600765958</v>
       </c>
       <c r="C62">
-        <v>14.49824492135759</v>
+        <v>17.63333865730853</v>
       </c>
       <c r="D62">
-        <v>25.18787367158677</v>
+        <v>11.26492803040733</v>
       </c>
       <c r="E62">
-        <v>14.94218279650616</v>
+        <v>18.8919926286585</v>
       </c>
       <c r="F62">
-        <v>10.77188253697644</v>
+        <v>18.63788850298085</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>15.56226479546524</v>
+        <v>3.8184686101738</v>
       </c>
       <c r="C63">
-        <v>15.20069971720285</v>
+        <v>17.89583390264996</v>
       </c>
       <c r="D63">
-        <v>26.57727828271687</v>
+        <v>11.42569246953324</v>
       </c>
       <c r="E63">
-        <v>15.84841667357222</v>
+        <v>19.17795331012794</v>
       </c>
       <c r="F63">
-        <v>11.36177493520561</v>
+        <v>18.92259325243991</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>16.28935999112582</v>
+        <v>3.849879768003723</v>
       </c>
       <c r="C64">
-        <v>15.87129214879631</v>
+        <v>18.1566621084511</v>
       </c>
       <c r="D64">
-        <v>27.8891832932972</v>
+        <v>11.58556013845018</v>
       </c>
       <c r="E64">
-        <v>16.72592152608997</v>
+        <v>19.46285477721357</v>
       </c>
       <c r="F64">
-        <v>11.93166958667273</v>
+        <v>19.20640430177363</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>16.98418683555581</v>
+        <v>3.880302998630655</v>
       </c>
       <c r="C65">
-        <v>16.50847838060842</v>
+        <v>18.41532932111399</v>
       </c>
       <c r="D65">
-        <v>29.11588819558988</v>
+        <v>11.74434441145847</v>
       </c>
       <c r="E65">
-        <v>17.5688496051176</v>
+        <v>19.74644026598093</v>
       </c>
       <c r="F65">
-        <v>12.47851619717866</v>
+        <v>19.4890718689805</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>17.6452233406298</v>
+        <v>3.909662219534896</v>
       </c>
       <c r="C66">
-        <v>17.11079767154478</v>
+        <v>18.67121000560847</v>
       </c>
       <c r="D66">
-        <v>30.25038936730629</v>
+        <v>11.90181126760725</v>
       </c>
       <c r="E66">
-        <v>18.37044949293539</v>
+        <v>20.02836567884139</v>
       </c>
       <c r="F66">
-        <v>12.99910436817899</v>
+        <v>19.77025465746469</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>18.27094630020819</v>
+        <v>3.937873743954067</v>
       </c>
       <c r="C67">
-        <v>17.67692095808953</v>
+        <v>18.92352436837617</v>
       </c>
       <c r="D67">
-        <v>31.28699371223252</v>
+        <v>12.05766729682431</v>
       </c>
       <c r="E67">
-        <v>19.12329037380391</v>
+        <v>20.30816661331924</v>
       </c>
       <c r="F67">
-        <v>13.49020373511674</v>
+        <v>20.04948077446511</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>18.85987138486633</v>
+        <v>3.964845743382704</v>
       </c>
       <c r="C68">
-        <v>18.20570456438248</v>
+        <v>19.17131778756838</v>
       </c>
       <c r="D68">
-        <v>32.22190918909811</v>
+        <v>12.21154571560943</v>
       </c>
       <c r="E68">
-        <v>19.81971295439355</v>
+        <v>20.58521006373858</v>
       </c>
       <c r="F68">
-        <v>13.94874947019171</v>
+        <v>20.32609544727236</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>19.41060375461725</v>
+        <v>3.990477855944311</v>
       </c>
       <c r="C69">
-        <v>18.69624685289164</v>
+        <v>19.41344628802791</v>
       </c>
       <c r="D69">
-        <v>33.05369371134377</v>
+        <v>12.3629896725414</v>
       </c>
       <c r="E69">
-        <v>20.45251821598748</v>
+        <v>20.85863136873744</v>
       </c>
       <c r="F69">
-        <v>14.3720593807775</v>
+        <v>20.59919158993842</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>19.92189916515233</v>
+        <v>4.014661014637503</v>
       </c>
       <c r="C70">
-        <v>19.1479445862293</v>
+        <v>19.64857321252856</v>
       </c>
       <c r="D70">
-        <v>33.78345841688311</v>
+        <v>12.51143424122692</v>
       </c>
       <c r="E70">
-        <v>21.01581893297114</v>
+        <v>21.12725454070047</v>
       </c>
       <c r="F70">
-        <v>14.7580565999565</v>
+        <v>20.86752517980589</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>20.39273475179511</v>
+        <v>4.037277868539085</v>
       </c>
       <c r="C71">
-        <v>19.56054480412423</v>
+        <v>19.87518373363499</v>
       </c>
       <c r="D71">
-        <v>34.41477932544128</v>
+        <v>12.65618897613796</v>
       </c>
       <c r="E71">
-        <v>21.50588059949862</v>
+        <v>21.38950215807665</v>
       </c>
       <c r="F71">
-        <v>15.10546301822692</v>
+        <v>21.12942568697363</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>20.82238626492009</v>
+        <v>4.058203788342321</v>
       </c>
       <c r="C72">
-        <v>19.93418734402888</v>
+        <v>20.09162363199255</v>
       </c>
       <c r="D72">
-        <v>34.95334256845017</v>
+        <v>12.79642440784781</v>
       </c>
       <c r="E72">
-        <v>21.92172473386049</v>
+        <v>21.64331515617864</v>
       </c>
       <c r="F72">
-        <v>15.41392777610306</v>
+        <v>21.38272436774544</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>21.21050642242713</v>
+        <v>4.07730889383282</v>
       </c>
       <c r="C73">
-        <v>20.26943298942942</v>
+        <v>20.29616679976156</v>
       </c>
       <c r="D73">
-        <v>35.40640777299648</v>
+        <v>12.93116731997339</v>
       </c>
       <c r="E73">
-        <v>22.26529575058715</v>
+        <v>21.88611995517613</v>
       </c>
       <c r="F73">
-        <v>15.68406483218272</v>
+        <v>21.62474002544257</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>21.55719603571435</v>
+        <v>4.094461639951772</v>
       </c>
       <c r="C74">
-        <v>20.56727282099989</v>
+        <v>20.48711243655998</v>
       </c>
       <c r="D74">
-        <v>35.78220127980241</v>
+        <v>13.0593133557962</v>
       </c>
       <c r="E74">
-        <v>22.54115782697962</v>
+        <v>22.11489803599633</v>
       </c>
       <c r="F74">
-        <v>15.91739195261526</v>
+        <v>21.85237271595406</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>21.8630581427611</v>
+        <v>4.109533968920368</v>
       </c>
       <c r="C75">
-        <v>20.82911576221354</v>
+        <v>20.66290489992751</v>
       </c>
       <c r="D75">
-        <v>36.08933940385227</v>
+        <v>13.17966522693399</v>
       </c>
       <c r="E75">
-        <v>22.75581079208983</v>
+        <v>22.32641082224693</v>
       </c>
       <c r="F75">
-        <v>16.11618439499568</v>
+        <v>22.06234857739144</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>22.12922401921933</v>
+        <v>4.12240828172065</v>
       </c>
       <c r="C76">
-        <v>21.05675345872861</v>
+        <v>20.82226196647253</v>
       </c>
       <c r="D76">
-        <v>36.33634929180491</v>
+        <v>13.29100069430645</v>
       </c>
       <c r="E76">
-        <v>22.91684553952787</v>
+        <v>22.51759311741745</v>
       </c>
       <c r="F76">
-        <v>16.28327274946841</v>
+        <v>22.25161833124925</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>22.35734393400332</v>
+        <v>4.132985940593304</v>
       </c>
       <c r="C77">
-        <v>21.25230420589778</v>
+        <v>20.96429119241093</v>
       </c>
       <c r="D77">
-        <v>36.53131821819183</v>
+        <v>13.3921747047807</v>
       </c>
       <c r="E77">
-        <v>23.03214455061748</v>
+        <v>22.68604871271887</v>
       </c>
       <c r="F77">
-        <v>16.42182096007535</v>
+        <v>22.4178392064804</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>22.54953743170736</v>
+        <v>4.141196203466078</v>
       </c>
       <c r="C78">
-        <v>21.41814017302161</v>
+        <v>21.08857187087855</v>
       </c>
       <c r="D78">
-        <v>36.68167016325512</v>
+        <v>13.48224271075983</v>
       </c>
       <c r="E78">
-        <v>23.10926481038748</v>
+        <v>22.83049993907809</v>
       </c>
       <c r="F78">
-        <v>16.53511710482706</v>
+        <v>22.55979925011649</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>22.70830885168378</v>
+        <v>4.147004111820888</v>
       </c>
       <c r="C79">
-        <v>21.55680415114512</v>
+        <v>21.19518707107733</v>
       </c>
       <c r="D79">
-        <v>36.79405096623397</v>
+        <v>13.56058345715025</v>
       </c>
       <c r="E79">
-        <v>23.15504716537326</v>
+        <v>22.95102073613516</v>
       </c>
       <c r="F79">
-        <v>16.62639941824605</v>
+        <v>22.67762900984045</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>22.83643527371416</v>
+        <v>4.150415495389043</v>
       </c>
       <c r="C80">
-        <v>21.67092306317672</v>
+        <v>21.28469937351754</v>
       </c>
       <c r="D80">
-        <v>36.87429555377159</v>
+        <v>13.62699093841716</v>
       </c>
       <c r="E80">
-        <v>23.17542941638277</v>
+        <v>23.04896709482708</v>
       </c>
       <c r="F80">
-        <v>16.69872808979565</v>
+        <v>22.77272298503363</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>22.93684376914488</v>
+        <v>4.151477764363907</v>
       </c>
       <c r="C81">
-        <v>21.76312534383182</v>
+        <v>21.35807809657134</v>
       </c>
       <c r="D81">
-        <v>36.92745123919457</v>
+        <v>13.68170850092635</v>
       </c>
       <c r="E81">
-        <v>23.17540932110808</v>
+        <v>23.12665440626772</v>
       </c>
       <c r="F81">
-        <v>16.75490315557986</v>
+        <v>22.84742201612038</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>23.01249127391673</v>
+        <v>4.150276257659602</v>
       </c>
       <c r="C82">
-        <v>21.83596812692445</v>
+        <v>21.41659507401667</v>
       </c>
       <c r="D82">
-        <v>36.95783495585599</v>
+        <v>13.72539445834728</v>
       </c>
       <c r="E82">
-        <v>23.15910057388159</v>
+        <v>23.1869176920543</v>
       </c>
       <c r="F82">
-        <v>16.79742233968529</v>
+        <v>22.90458218296884</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>23.06626019014523</v>
+        <v>4.146927080422613</v>
       </c>
       <c r="C83">
-        <v>21.89187830526354</v>
+        <v>21.46170861560439</v>
       </c>
       <c r="D83">
-        <v>36.96910782873906</v>
+        <v>13.75902988600753</v>
       </c>
       <c r="E83">
-        <v>23.12983573882131</v>
+        <v>23.2327008666118</v>
       </c>
       <c r="F83">
-        <v>16.82846956678653</v>
+        <v>22.94717157506645</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>23.10087796609711</v>
+        <v>4.141568115628751</v>
       </c>
       <c r="C84">
-        <v>21.9331094005998</v>
+        <v>21.49495459080301</v>
       </c>
       <c r="D84">
-        <v>36.9643554800269</v>
+        <v>13.78379504740376</v>
       </c>
       <c r="E84">
-        <v>23.09028487039941</v>
+        <v>23.26676635722502</v>
       </c>
       <c r="F84">
-        <v>16.84992473374315</v>
+        <v>22.97797850433047</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>23.11886006384314</v>
+        <v>4.134349935643362</v>
       </c>
       <c r="C85">
-        <v>21.96171385116437</v>
+        <v>21.5178561465916</v>
       </c>
       <c r="D85">
-        <v>36.94616707332681</v>
+        <v>13.80094507403922</v>
       </c>
       <c r="E85">
-        <v>23.04257219125977</v>
+        <v>23.29153233358209</v>
       </c>
       <c r="F85">
-        <v>16.8633844971247</v>
+        <v>22.99945069169697</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>23.04282942151146</v>
+        <v>4.125427857178726</v>
       </c>
       <c r="C86">
-        <v>21.92745950677096</v>
+        <v>21.5318576442183</v>
       </c>
       <c r="D86">
-        <v>36.85873450685003</v>
+        <v>13.81170744298175</v>
       </c>
       <c r="E86">
-        <v>22.96315913177997</v>
+        <v>23.30901725318417</v>
       </c>
       <c r="F86">
-        <v>16.83940115692094</v>
+        <v>23.0136335695758</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>22.96567907026443</v>
+        <v>4.114955732391424</v>
       </c>
       <c r="C87">
-        <v>21.89231803533784</v>
+        <v>21.53828268667376</v>
       </c>
       <c r="D87">
-        <v>36.7703983255688</v>
+        <v>13.81721170888264</v>
       </c>
       <c r="E87">
-        <v>22.88331238817113</v>
+        <v>23.32085138995087</v>
       </c>
       <c r="F87">
-        <v>16.81488981561155</v>
+        <v>23.02218083278046</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>22.88758623051024</v>
+        <v>4.103081567470662</v>
       </c>
       <c r="C88">
-        <v>21.85643111757636</v>
+        <v>21.5383123348934</v>
       </c>
       <c r="D88">
-        <v>36.68131221345697</v>
+        <v>13.81845119770185</v>
       </c>
       <c r="E88">
-        <v>22.80314085062367</v>
+        <v>23.32832235900279</v>
       </c>
       <c r="F88">
-        <v>16.7899455904754</v>
+        <v>23.02639821960492</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>22.80870558011205</v>
+        <v>4.089944748749391</v>
       </c>
       <c r="C89">
-        <v>21.81992102747035</v>
+        <v>21.53297899563928</v>
       </c>
       <c r="D89">
-        <v>36.59160209045622</v>
+        <v>13.81627017506089</v>
       </c>
       <c r="E89">
-        <v>22.72272760725843</v>
+        <v>23.33243212562591</v>
       </c>
       <c r="F89">
-        <v>16.76464631586012</v>
+        <v>23.02730061000967</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>22.72917013476061</v>
+        <v>4.075674529169974</v>
       </c>
       <c r="C90">
-        <v>21.78289245674139</v>
+        <v>21.52317085620421</v>
       </c>
       <c r="D90">
-        <v>36.50137300958274</v>
+        <v>13.81136816324863</v>
       </c>
       <c r="E90">
-        <v>22.64213856160339</v>
+        <v>23.33395316189079</v>
       </c>
       <c r="F90">
-        <v>16.73905649343421</v>
+        <v>23.02566862967075</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>22.64909399677423</v>
+        <v>4.060389429777817</v>
       </c>
       <c r="C91">
-        <v>21.74543417083238</v>
+        <v>21.50964263374941</v>
       </c>
       <c r="D91">
-        <v>36.41071268947536</v>
+        <v>13.80431393054335</v>
       </c>
       <c r="E91">
-        <v>22.56142570549049</v>
+        <v>23.33347797889073</v>
       </c>
       <c r="F91">
-        <v>16.71322925672802</v>
+        <v>23.02209894641604</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>22.56857463979054</v>
+        <v>4.044197262809648</v>
       </c>
       <c r="C92">
-        <v>21.70762128650146</v>
+        <v>21.49302965857702</v>
       </c>
       <c r="D92">
-        <v>36.31969452762455</v>
+        <v>13.79556361730537</v>
       </c>
       <c r="E92">
-        <v>22.48063056488027</v>
+        <v>23.33145999147472</v>
       </c>
       <c r="F92">
-        <v>16.68720861233909</v>
+        <v>23.01704607533363</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>22.48769475006555</v>
+        <v>4.027195542998979</v>
       </c>
       <c r="C93">
-        <v>21.66951698182686</v>
+        <v>21.47386297865616</v>
       </c>
       <c r="D93">
-        <v>36.22838007861331</v>
+        <v>13.78547945655757</v>
       </c>
       <c r="E93">
-        <v>22.39978634945148</v>
+        <v>23.32824579646291</v>
       </c>
       <c r="F93">
-        <v>16.66103093281347</v>
+        <v>23.01085556169624</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>22.40652468839387</v>
+        <v>4.009472126017527</v>
       </c>
       <c r="C94">
-        <v>21.63117411516967</v>
+        <v>21.45258414235157</v>
       </c>
       <c r="D94">
-        <v>36.13682079149005</v>
+        <v>13.7743472594163</v>
       </c>
       <c r="E94">
-        <v>22.31891961910866</v>
+        <v>23.32410085109422</v>
       </c>
       <c r="F94">
-        <v>16.63472622230639</v>
+        <v>23.00379029084647</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>22.32512433472993</v>
+        <v>3.991105959457396</v>
       </c>
       <c r="C95">
-        <v>21.59263681694287</v>
+        <v>21.42955899466222</v>
       </c>
       <c r="D95">
-        <v>36.04505976928402</v>
+        <v>13.76239158144448</v>
       </c>
       <c r="E95">
-        <v>22.23805174486386</v>
+        <v>23.31922877771391</v>
       </c>
       <c r="F95">
-        <v>16.60831929555986</v>
+        <v>22.99605039108875</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>22.24354432553319</v>
+        <v>3.972167871665857</v>
       </c>
       <c r="C96">
-        <v>21.55394205071688</v>
+        <v>21.40508992261976</v>
       </c>
       <c r="D96">
-        <v>35.95313354601765</v>
+        <v>13.74978839920682</v>
       </c>
       <c r="E96">
-        <v>22.15719994842267</v>
+        <v>23.31378631988426</v>
       </c>
       <c r="F96">
-        <v>16.581830814014</v>
+        <v>22.98778858083534</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>22.1618276961459</v>
+        <v>3.952721350843853</v>
       </c>
       <c r="C97">
-        <v>21.51512063798601</v>
+        <v>21.37942640404506</v>
       </c>
       <c r="D97">
-        <v>35.86107289906653</v>
+        <v>13.73667542049976</v>
       </c>
       <c r="E97">
-        <v>22.07637821333155</v>
+        <v>23.30789446404884</v>
       </c>
       <c r="F97">
-        <v>16.55527793128045</v>
+        <v>22.97912163273149</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>22.08001103033556</v>
+        <v>3.932823291298612</v>
       </c>
       <c r="C98">
-        <v>21.47619819497075</v>
+        <v>21.35277405178355</v>
       </c>
       <c r="D98">
-        <v>35.76890381270894</v>
+        <v>13.72316041353356</v>
       </c>
       <c r="E98">
-        <v>21.99559794665148</v>
+        <v>23.30164702756197</v>
       </c>
       <c r="F98">
-        <v>16.52867487553528</v>
+        <v>22.97013913398476</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>21.99812542416361</v>
+        <v>3.912524686737684</v>
       </c>
       <c r="C99">
-        <v>21.4371960429712</v>
+        <v>21.3253022971518</v>
       </c>
       <c r="D99">
-        <v>35.67664834100034</v>
+        <v>13.70932780723153</v>
       </c>
       <c r="E99">
-        <v>21.91486845865226</v>
+        <v>23.29511699290232</v>
       </c>
       <c r="F99">
-        <v>16.5020334972203</v>
+        <v>22.96090999742367</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>21.91619730622993</v>
+        <v>3.891871261538312</v>
       </c>
       <c r="C100">
-        <v>21.39813194529298</v>
+        <v>21.29715083664254</v>
       </c>
       <c r="D100">
-        <v>35.58432517374258</v>
+        <v>13.69524380504884</v>
       </c>
       <c r="E100">
-        <v>21.83419737310429</v>
+        <v>23.28836141219006</v>
       </c>
       <c r="F100">
-        <v>16.47536370417597</v>
+        <v>22.95148742381935</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>21.83424937952356</v>
+        <v>3.870904043262119</v>
       </c>
       <c r="C101">
-        <v>21.35902077924372</v>
+        <v>21.26843489382697</v>
       </c>
       <c r="D101">
-        <v>35.49195020043071</v>
+        <v>13.68096044986452</v>
       </c>
       <c r="E101">
-        <v>21.75359098387721</v>
+        <v>23.28142504298459</v>
       </c>
       <c r="F101">
-        <v>16.4486738033277</v>
+        <v>22.94191261249656</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>21.75230104885102</v>
+        <v>3.849659879831605</v>
       </c>
       <c r="C102">
-        <v>21.3198749598161</v>
+        <v>21.23924958374518</v>
       </c>
       <c r="D102">
-        <v>35.39953701248991</v>
+        <v>13.66651871898528</v>
       </c>
       <c r="E102">
-        <v>21.67305452631512</v>
+        <v>23.27434317034446</v>
       </c>
       <c r="F102">
-        <v>16.4219707758158</v>
+        <v>22.93221758228393</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>21.67036889488416</v>
+        <v>3.828171901934403</v>
       </c>
       <c r="C103">
-        <v>21.28070485299905</v>
+        <v>21.20967350671357</v>
       </c>
       <c r="D103">
-        <v>35.30709725268144</v>
+        <v>13.65195096538528</v>
       </c>
       <c r="E103">
-        <v>21.59259236375494</v>
+        <v>23.26714370230508</v>
       </c>
       <c r="F103">
-        <v>16.39526050469498</v>
+        <v>22.92242728301989</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>21.58846711515081</v>
+        <v>3.80646993110209</v>
       </c>
       <c r="C104">
-        <v>21.24151912568552</v>
+        <v>21.17977170547253</v>
       </c>
       <c r="D104">
-        <v>35.21464088449276</v>
+        <v>13.63728279823327</v>
       </c>
       <c r="E104">
-        <v>21.51220814735664</v>
+        <v>23.25984880103447</v>
       </c>
       <c r="F104">
-        <v>16.36854793034451</v>
+        <v>22.9125612209129</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>21.50660795153791</v>
+        <v>3.784580843503587</v>
       </c>
       <c r="C105">
-        <v>21.20232503950847</v>
+        <v>21.14959808339222</v>
       </c>
       <c r="D105">
-        <v>35.12217645102996</v>
+        <v>13.62253453878476</v>
       </c>
       <c r="E105">
-        <v>21.43190495195894</v>
+        <v>23.25247618127897</v>
       </c>
       <c r="F105">
-        <v>16.34183721206655</v>
+        <v>22.90263475328474</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>21.42480199807621</v>
+        <v>3.762528892608767</v>
       </c>
       <c r="C106">
-        <v>21.16312868556572</v>
+        <v>21.11919737867596</v>
       </c>
       <c r="D106">
-        <v>35.02971128825413</v>
+        <v>13.6077223709435</v>
       </c>
       <c r="E106">
-        <v>21.35168534729429</v>
+        <v>23.2450400786884</v>
       </c>
       <c r="F106">
-        <v>16.31513187888432</v>
+        <v>22.89266000757443</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>21.34305842186589</v>
+        <v>3.74033599379311</v>
       </c>
       <c r="C107">
-        <v>21.12393519522002</v>
+        <v>21.08860678083484</v>
       </c>
       <c r="D107">
-        <v>34.93725175223047</v>
+        <v>13.59285921270775</v>
       </c>
       <c r="E107">
-        <v>21.27155151853293</v>
+        <v>23.23755193955853</v>
       </c>
       <c r="F107">
-        <v>16.28843493266417</v>
+        <v>22.88264654668297</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>21.26138515815598</v>
+        <v>3.718021976800599</v>
       </c>
       <c r="C108">
-        <v>21.08474889751104</v>
+        <v>21.05785725644273</v>
       </c>
       <c r="D108">
-        <v>34.84480331189762</v>
+        <v>13.57795540777128</v>
       </c>
       <c r="E108">
-        <v>21.19150533724091</v>
+        <v>23.23002097672559</v>
       </c>
       <c r="F108">
-        <v>16.26174893164158</v>
+        <v>22.87260192067683</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>21.17978909454301</v>
+        <v>3.695604806678055</v>
       </c>
       <c r="C109">
-        <v>21.04557344817486</v>
+        <v>21.02697463547428</v>
       </c>
       <c r="D109">
-        <v>34.75237076167217</v>
+        <v>13.56301926214174</v>
       </c>
       <c r="E109">
-        <v>21.11154841329932</v>
+        <v>23.22245464637205</v>
       </c>
       <c r="F109">
-        <v>16.2350760597545</v>
+        <v>22.8625321298429</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>21.09827622718649</v>
+        <v>3.67310078127077</v>
       </c>
       <c r="C110">
-        <v>21.00641194617763</v>
+        <v>20.99598050082116</v>
       </c>
       <c r="D110">
-        <v>34.65995826962138</v>
+        <v>13.54805746528412</v>
       </c>
       <c r="E110">
-        <v>21.03168214576375</v>
+        <v>23.21485902733684</v>
       </c>
       <c r="F110">
-        <v>16.20841818196993</v>
+        <v>22.85244197527839</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>21.01685180268476</v>
+        <v>3.650524722869183</v>
       </c>
       <c r="C111">
-        <v>20.96726700957722</v>
+        <v>20.96489291697155</v>
       </c>
       <c r="D111">
-        <v>34.56756941383078</v>
+        <v>13.53307541923065</v>
       </c>
       <c r="E111">
-        <v>20.95190774394536</v>
+        <v>23.20723909765644</v>
       </c>
       <c r="F111">
-        <v>16.18177689294651</v>
+        <v>22.8423353074615</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>20.9355204417181</v>
+        <v>3.627890117069524</v>
       </c>
       <c r="C112">
-        <v>20.92814086330563</v>
+        <v>20.93372703211679</v>
       </c>
       <c r="D112">
-        <v>34.47520738906372</v>
+        <v>13.51807749491343</v>
       </c>
       <c r="E112">
-        <v>20.87222626353611</v>
+        <v>23.19959893918593</v>
       </c>
       <c r="F112">
-        <v>16.15515356331992</v>
+        <v>22.83221521351405</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>20.85428621315026</v>
+        <v>3.605209244794435</v>
       </c>
       <c r="C113">
-        <v>20.88903540283644</v>
+        <v>20.90249557069373</v>
       </c>
       <c r="D113">
-        <v>34.38287490972679</v>
+        <v>13.5030672398137</v>
       </c>
       <c r="E113">
-        <v>20.79263863366926</v>
+        <v>23.19194190267458</v>
       </c>
       <c r="F113">
-        <v>16.12854937361881</v>
+        <v>22.82208416687252</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>20.77315269024799</v>
+        <v>3.582493308906009</v>
       </c>
       <c r="C114">
-        <v>20.8499522451929</v>
+        <v>20.87120923962314</v>
       </c>
       <c r="D114">
-        <v>34.29057438230598</v>
+        <v>13.48804757110348</v>
       </c>
       <c r="E114">
-        <v>20.71314567722208</v>
+        <v>23.18427074146638</v>
       </c>
       <c r="F114">
-        <v>16.1019653424631</v>
+        <v>22.81194416656203</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>20.69212298753617</v>
+        <v>3.559752541672472</v>
       </c>
       <c r="C115">
-        <v>20.81089277694146</v>
+        <v>20.83987706007811</v>
       </c>
       <c r="D115">
-        <v>34.1983079133381</v>
+        <v>13.47302087876393</v>
       </c>
       <c r="E115">
-        <v>20.63374813058762</v>
+        <v>23.17658774355719</v>
       </c>
       <c r="F115">
-        <v>16.07540235007185</v>
+        <v>22.80179681158142</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>20.61119987422089</v>
+        <v>3.536996306005541</v>
       </c>
       <c r="C116">
-        <v>20.771858182336</v>
+        <v>20.80850664143454</v>
       </c>
       <c r="D116">
-        <v>34.10607735403278</v>
+        <v>13.45798910399102</v>
       </c>
       <c r="E116">
-        <v>20.55444665460016</v>
+        <v>23.16889482835114</v>
       </c>
       <c r="F116">
-        <v>16.04886115850312</v>
+        <v>22.79164345211327</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>20.53038581636054</v>
+        <v>3.514233178254828</v>
       </c>
       <c r="C117">
-        <v>20.7328494779183</v>
+        <v>20.77710441068919</v>
       </c>
       <c r="D117">
-        <v>34.01388435721064</v>
+        <v>13.44295383917893</v>
       </c>
       <c r="E117">
-        <v>20.47524184639032</v>
+        <v>23.16119357176034</v>
       </c>
       <c r="F117">
-        <v>16.02234242787303</v>
+        <v>22.7814851604309</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>20.44968299120871</v>
+        <v>3.491471024227038</v>
       </c>
       <c r="C118">
-        <v>20.6938675380609</v>
+        <v>20.74567586747347</v>
       </c>
       <c r="D118">
-        <v>33.92173037405796</v>
+        <v>13.42791639264407</v>
       </c>
       <c r="E118">
-        <v>20.39613424937582</v>
+        <v>23.153485340913</v>
       </c>
       <c r="F118">
-        <v>15.99584673206899</v>
+        <v>22.77132280903083</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>20.36909339487027</v>
+        <v>3.468717066731337</v>
       </c>
       <c r="C119">
-        <v>20.65491311662655</v>
+        <v>20.71422565290493</v>
       </c>
       <c r="D119">
-        <v>33.82961669464252</v>
+        <v>13.41287784755925</v>
       </c>
       <c r="E119">
-        <v>20.3171243599375</v>
+        <v>23.14577124215101</v>
       </c>
       <c r="F119">
-        <v>15.96937457083389</v>
+        <v>22.76115713375271</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>20.28861874760177</v>
+        <v>3.445977945501872</v>
       </c>
       <c r="C120">
-        <v>20.61598686560155</v>
+        <v>20.68275771107347</v>
       </c>
       <c r="D120">
-        <v>33.73754446829413</v>
+        <v>13.39783910573308</v>
       </c>
       <c r="E120">
-        <v>20.2382126391316</v>
+        <v>23.13805220851658</v>
       </c>
       <c r="F120">
-        <v>15.94292637999459</v>
+        <v>22.750988705535</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>20.20826068933239</v>
+        <v>3.423259773313001</v>
       </c>
       <c r="C121">
-        <v>20.5770893487188</v>
+        <v>20.65127542156605</v>
       </c>
       <c r="D121">
-        <v>33.6455147076446</v>
+        <v>13.3828009172113</v>
       </c>
       <c r="E121">
-        <v>20.15939950974845</v>
+        <v>23.13032903044817</v>
       </c>
       <c r="F121">
-        <v>15.91650253825842</v>
+        <v>22.74081800065081</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>20.1280206058785</v>
+        <v>3.400568181986637</v>
       </c>
       <c r="C122">
-        <v>20.53822105495059</v>
+        <v>20.61978163228495</v>
       </c>
       <c r="D122">
-        <v>33.55352832189829</v>
+        <v>13.36776390672718</v>
       </c>
       <c r="E122">
-        <v>20.08068537747143</v>
+        <v>23.12260236965225</v>
       </c>
       <c r="F122">
-        <v>15.89010337991551</v>
+        <v>22.73064541313719</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>20.04789982421549</v>
+        <v>3.377908367897431</v>
       </c>
       <c r="C123">
-        <v>20.4993824091699</v>
+        <v>20.5882787830383</v>
       </c>
       <c r="D123">
-        <v>33.46158612070401</v>
+        <v>13.35272859544646</v>
       </c>
       <c r="E123">
-        <v>20.00207061293747</v>
+        <v>23.11487278841935</v>
       </c>
       <c r="F123">
-        <v>15.86372919315252</v>
+        <v>22.720471268937</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>19.96789948388743</v>
+        <v>3.3552851305919</v>
       </c>
       <c r="C124">
-        <v>20.46057378159058</v>
+        <v>20.55676896521246</v>
       </c>
       <c r="D124">
-        <v>33.36968882923414</v>
+        <v>13.337695416676</v>
       </c>
       <c r="E124">
-        <v>19.92355557896688</v>
+        <v>23.10714077470298</v>
       </c>
       <c r="F124">
-        <v>15.83738023823688</v>
+        <v>22.71029583790805</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>19.88802065184915</v>
+        <v>3.332702907978722</v>
       </c>
       <c r="C125">
-        <v>20.42179549428096</v>
+        <v>20.52525398016568</v>
       </c>
       <c r="D125">
-        <v>33.27783710435412</v>
+        <v>13.32266473546406</v>
       </c>
       <c r="E125">
-        <v>19.84514060982749</v>
+        <v>23.09940674024623</v>
       </c>
       <c r="F125">
-        <v>15.81105673669505</v>
+        <v>22.70011935133364</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>19.80826428121925</v>
+        <v>3.310165808145173</v>
       </c>
       <c r="C126">
-        <v>20.38304782897519</v>
+        <v>20.49373537160125</v>
       </c>
       <c r="D126">
-        <v>33.18603153290385</v>
+        <v>13.30763685636039</v>
       </c>
       <c r="E126">
-        <v>19.7668260330742</v>
+        <v>23.0916710370588</v>
       </c>
       <c r="F126">
-        <v>15.78475888962898</v>
+        <v>22.68994199419115</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>19.72863125031671</v>
+        <v>3.287677636489268</v>
       </c>
       <c r="C127">
-        <v>20.34433103282447</v>
+        <v>20.46221446770598</v>
       </c>
       <c r="D127">
-        <v>33.09427264879302</v>
+        <v>13.29261204518145</v>
       </c>
       <c r="E127">
-        <v>19.68861215753994</v>
+        <v>23.08393397060893</v>
       </c>
       <c r="F127">
-        <v>15.75848686877941</v>
+        <v>22.67976392284897</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>19.64912236774218</v>
+        <v>3.265241922384477</v>
       </c>
       <c r="C128">
-        <v>20.30564532383551</v>
+        <v>20.43069241795035</v>
       </c>
       <c r="D128">
-        <v>33.0025609327631</v>
+        <v>13.27759051992115</v>
       </c>
       <c r="E128">
-        <v>19.61049928459537</v>
+        <v>23.0761957977284</v>
       </c>
       <c r="F128">
-        <v>15.73224082754698</v>
+        <v>22.66958526636287</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>19.56973837612436</v>
+        <v>3.242861942159941</v>
       </c>
       <c r="C129">
-        <v>20.26699089431478</v>
+        <v>20.39917020692824</v>
       </c>
       <c r="D129">
-        <v>32.91089682029772</v>
+        <v>13.26257247683255</v>
       </c>
       <c r="E129">
-        <v>19.53248770485957</v>
+        <v>23.06845674099624</v>
       </c>
       <c r="F129">
-        <v>15.70602089977962</v>
+        <v>22.65940613222481</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>19.49047997042389</v>
+        <v>3.220540737394222</v>
       </c>
       <c r="C130">
-        <v>20.22836791429762</v>
+        <v>20.36764868719313</v>
       </c>
       <c r="D130">
-        <v>32.81928070896846</v>
+        <v>13.24755807198409</v>
       </c>
       <c r="E130">
-        <v>19.45457770244849</v>
+        <v>23.06071699298928</v>
       </c>
       <c r="F130">
-        <v>15.67982720313726</v>
+        <v>22.64922661074171</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>19.41134778525034</v>
+        <v>3.198281142023855</v>
       </c>
       <c r="C131">
-        <v>20.1897765335883</v>
+        <v>20.33612859251425</v>
       </c>
       <c r="D131">
-        <v>32.72771295960722</v>
+        <v>13.23254744774073</v>
       </c>
       <c r="E131">
-        <v>19.37676955454513</v>
+        <v>23.05297672017483</v>
       </c>
       <c r="F131">
-        <v>15.65365984236864</v>
+        <v>22.63904677905741</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>19.33234242219689</v>
+        <v>3.176085783665256</v>
       </c>
       <c r="C132">
-        <v>20.1512168849636</v>
+        <v>20.30461056546116</v>
       </c>
       <c r="D132">
-        <v>32.63619390085434</v>
+        <v>13.21754071669069</v>
       </c>
       <c r="E132">
-        <v>19.29906353375243</v>
+        <v>23.04523606747657</v>
       </c>
       <c r="F132">
-        <v>15.62751890880453</v>
+        <v>22.62886670126852</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>19.25346443179513</v>
+        <v>3.153957128454971</v>
       </c>
       <c r="C133">
-        <v>20.11268908526829</v>
+        <v>20.27309516288203</v>
       </c>
       <c r="D133">
-        <v>32.54472383547755</v>
+        <v>13.20253798044985</v>
       </c>
       <c r="E133">
-        <v>19.22145990744245</v>
+        <v>23.03749516173162</v>
       </c>
       <c r="F133">
-        <v>15.60140448452846</v>
+        <v>22.61868643215971</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>19.17471433521295</v>
+        <v>3.1318974551705</v>
       </c>
       <c r="C134">
-        <v>20.07419323883767</v>
+        <v>20.24158286595881</v>
       </c>
       <c r="D134">
-        <v>32.45330304549126</v>
+        <v>13.18753932286589</v>
       </c>
       <c r="E134">
-        <v>19.14395893977102</v>
+        <v>23.02975411215663</v>
       </c>
       <c r="F134">
-        <v>15.57531664063714</v>
+        <v>22.608506017652</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>19.09609261802433</v>
+        <v>3.109908912124949</v>
       </c>
       <c r="C135">
-        <v>20.03572943794466</v>
+        <v>20.21007412029579</v>
       </c>
       <c r="D135">
-        <v>32.36193177860343</v>
+        <v>13.17254481880187</v>
       </c>
       <c r="E135">
-        <v>19.06656089116892</v>
+        <v>23.02201301475513</v>
       </c>
       <c r="F135">
-        <v>15.54925544093443</v>
+        <v>22.59832549613633</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>19.01759973948758</v>
+        <v>3.087993484338709</v>
       </c>
       <c r="C136">
-        <v>19.99729776619956</v>
+        <v>20.17856927626917</v>
       </c>
       <c r="D136">
-        <v>32.27061028288133</v>
+        <v>13.15755453145741</v>
       </c>
       <c r="E136">
-        <v>18.98926601967329</v>
+        <v>23.01427195300595</v>
       </c>
       <c r="F136">
-        <v>15.52322094069462</v>
+        <v>22.58814490029</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>18.93923613339182</v>
+        <v>3.066153041719574</v>
       </c>
       <c r="C137">
-        <v>19.95889829739829</v>
+        <v>20.14706869029938</v>
       </c>
       <c r="D137">
-        <v>32.17933877613594</v>
+        <v>13.14256851955584</v>
       </c>
       <c r="E137">
-        <v>18.91207458108665</v>
+        <v>23.00653100000423</v>
       </c>
       <c r="F137">
-        <v>15.49721318887793</v>
+        <v>22.57796425770927</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>18.86100221261906</v>
+        <v>3.044389319573586</v>
       </c>
       <c r="C138">
-        <v>19.92053109990965</v>
+        <v>20.11557262515615</v>
       </c>
       <c r="D138">
-        <v>32.08811745975838</v>
+        <v>13.12758683096542</v>
       </c>
       <c r="E138">
-        <v>18.83498682952893</v>
+        <v>22.99879021957374</v>
       </c>
       <c r="F138">
-        <v>15.4712322283231</v>
+        <v>22.56778359139809</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>18.782898369321</v>
+        <v>3.022703948832728</v>
       </c>
       <c r="C139">
-        <v>19.88219623342631</v>
+        <v>20.08408134986655</v>
       </c>
       <c r="D139">
-        <v>31.99694653598441</v>
+        <v>13.11260951191731</v>
       </c>
       <c r="E139">
-        <v>18.75800301807167</v>
+        <v>22.99104966834499</v>
       </c>
       <c r="F139">
-        <v>15.44527809640765</v>
+        <v>22.55760292246812</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>18.7049249793349</v>
+        <v>3.001098450321226</v>
       </c>
       <c r="C140">
-        <v>19.84389375402232</v>
+        <v>20.05259507366492</v>
       </c>
       <c r="D140">
-        <v>31.90582617213574</v>
+        <v>13.09763659942578</v>
       </c>
       <c r="E140">
-        <v>18.68112339864556</v>
+        <v>22.98330939665825</v>
       </c>
       <c r="F140">
-        <v>15.41935082612517</v>
+        <v>22.54742226627915</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>18.62708240138478</v>
+        <v>2.979574252779972</v>
       </c>
       <c r="C141">
-        <v>19.80562371066324</v>
+        <v>20.02111399508651</v>
       </c>
       <c r="D141">
-        <v>31.8147565425813</v>
+        <v>13.08266812884147</v>
       </c>
       <c r="E141">
-        <v>18.60434822302388</v>
+        <v>22.97556944731596</v>
       </c>
       <c r="F141">
-        <v>15.39345044591019</v>
+        <v>22.53724163948686</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>18.54937098059904</v>
+        <v>2.958132690711117</v>
       </c>
       <c r="C142">
-        <v>19.76738614919839</v>
+        <v>19.98963828286814</v>
       </c>
       <c r="D142">
-        <v>31.7237378047535</v>
+        <v>13.06770412965465</v>
       </c>
       <c r="E142">
-        <v>18.52767774222796</v>
+        <v>22.96782986235557</v>
       </c>
       <c r="F142">
-        <v>15.36757698084165</v>
+        <v>22.52706105418416</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>18.47179104891167</v>
+        <v>2.936775019498258</v>
       </c>
       <c r="C143">
-        <v>19.72918111040411</v>
+        <v>19.95816809043376</v>
       </c>
       <c r="D143">
-        <v>31.63277010348684</v>
+        <v>13.05274462901985</v>
       </c>
       <c r="E143">
-        <v>18.45111220764187</v>
+        <v>22.96009067346657</v>
       </c>
       <c r="F143">
-        <v>15.34173045227088</v>
+        <v>22.51688052111887</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>18.39434292673237</v>
+        <v>2.915502411764203</v>
       </c>
       <c r="C144">
-        <v>19.69100863215277</v>
+        <v>19.92670355280461</v>
       </c>
       <c r="D144">
-        <v>31.54185358080853</v>
+        <v>13.03778965096867</v>
       </c>
       <c r="E144">
-        <v>18.37465187036165</v>
+        <v>22.95235191465459</v>
       </c>
       <c r="F144">
-        <v>15.31591087880799</v>
+        <v>22.50670005076125</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>18.3170269246412</v>
+        <v>2.894315971368285</v>
       </c>
       <c r="C145">
-        <v>19.65286874882742</v>
+        <v>19.89524479276142</v>
       </c>
       <c r="D145">
-        <v>31.45098836814481</v>
+        <v>13.02283921740159</v>
       </c>
       <c r="E145">
-        <v>18.29829698209009</v>
+        <v>22.94461361180633</v>
       </c>
       <c r="F145">
-        <v>15.29011827612772</v>
+        <v>22.49651964988338</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>18.23984334365833</v>
+        <v>2.873216730065248</v>
       </c>
       <c r="C146">
-        <v>19.61476149241038</v>
+        <v>19.86379192163036</v>
       </c>
       <c r="D146">
-        <v>31.36017459240515</v>
+        <v>13.00789334815258</v>
       </c>
       <c r="E146">
-        <v>18.22204779476652</v>
+        <v>22.93687578988891</v>
       </c>
       <c r="F146">
-        <v>15.26435265753747</v>
+        <v>22.48633932624668</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>18.16279247746478</v>
+        <v>2.852205658592449</v>
       </c>
       <c r="C147">
-        <v>19.57668689220192</v>
+        <v>19.83234503604669</v>
       </c>
       <c r="D147">
-        <v>31.26941237459583</v>
+        <v>12.99295206164796</v>
       </c>
       <c r="E147">
-        <v>18.14590456110195</v>
+        <v>22.9291384708957</v>
       </c>
       <c r="F147">
-        <v>15.23861403413844</v>
+        <v>22.47615908508035</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>18.08587461176909</v>
+        <v>2.831283665698803</v>
       </c>
       <c r="C148">
-        <v>19.53864497571713</v>
+        <v>19.80090422875</v>
       </c>
       <c r="D148">
-        <v>31.17870182927119</v>
+        <v>12.97801537446565</v>
       </c>
       <c r="E148">
-        <v>18.06986753447122</v>
+        <v>22.92140167357767</v>
       </c>
       <c r="F148">
-        <v>15.21290241497675</v>
+        <v>22.46597893154514</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>18.00909002671477</v>
+        <v>2.810451605543114</v>
       </c>
       <c r="C149">
-        <v>19.50063576822214</v>
+        <v>19.76946957703376</v>
       </c>
       <c r="D149">
-        <v>31.08804306934495</v>
+        <v>12.96308330227277</v>
       </c>
       <c r="E149">
-        <v>17.99393696921095</v>
+        <v>22.91366541550221</v>
       </c>
       <c r="F149">
-        <v>15.18721780743418</v>
+        <v>22.45579886983674</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>17.93243899586949</v>
+        <v>2.789710278924128</v>
       </c>
       <c r="C150">
-        <v>19.4626592936263</v>
+        <v>19.73804115612325</v>
       </c>
       <c r="D150">
-        <v>30.99743620067806</v>
+        <v>12.94815585919244</v>
       </c>
       <c r="E150">
-        <v>17.91811312059711</v>
+        <v>22.90592971194038</v>
       </c>
       <c r="F150">
-        <v>15.16156021715906</v>
+        <v>22.44561890368989</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>17.85592178836199</v>
+        <v>2.769060437806046</v>
       </c>
       <c r="C151">
-        <v>19.42471557402782</v>
+        <v>19.70661903058785</v>
       </c>
       <c r="D151">
-        <v>30.90688132682859</v>
+        <v>12.93323305860656</v>
       </c>
       <c r="E151">
-        <v>17.84239624505612</v>
+        <v>22.89819457707559</v>
       </c>
       <c r="F151">
-        <v>15.13592964846587</v>
+        <v>22.43543903633396</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>17.77953866820325</v>
+        <v>2.748502787741472</v>
       </c>
       <c r="C152">
-        <v>19.38680463039634</v>
+        <v>19.675203261344</v>
       </c>
       <c r="D152">
-        <v>30.81637854899667</v>
+        <v>12.9183149128383</v>
       </c>
       <c r="E152">
-        <v>17.76678660014727</v>
+        <v>22.89046002316299</v>
       </c>
       <c r="F152">
-        <v>15.11032610424742</v>
+        <v>22.425259270588</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>17.70328989573001</v>
+        <v>2.728037990486668</v>
       </c>
       <c r="C153">
-        <v>19.3489264823517</v>
+        <v>19.6437939032148</v>
       </c>
       <c r="D153">
-        <v>30.72592796234083</v>
+        <v>12.90340143355295</v>
       </c>
       <c r="E153">
-        <v>17.69128444472835</v>
+        <v>22.88272606197809</v>
       </c>
       <c r="F153">
-        <v>15.08474958627927</v>
+        <v>22.41507960915589</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>17.62717572749478</v>
+        <v>2.707666667119727</v>
       </c>
       <c r="C154">
-        <v>19.31108114854765</v>
+        <v>19.6123910075286</v>
       </c>
       <c r="D154">
-        <v>30.63552966209111</v>
+        <v>12.88849263176448</v>
       </c>
       <c r="E154">
-        <v>17.6158900389628</v>
+        <v>22.8749927037552</v>
       </c>
       <c r="F154">
-        <v>15.05920009519916</v>
+        <v>22.40490005398857</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>17.55119641703877</v>
+        <v>2.687389399252897</v>
       </c>
       <c r="C155">
-        <v>19.27326864665379</v>
+        <v>19.58099462107525</v>
       </c>
       <c r="D155">
-        <v>30.54518373966637</v>
+        <v>12.87358851792262</v>
       </c>
       <c r="E155">
-        <v>17.54060364442733</v>
+        <v>22.8672599577853</v>
       </c>
       <c r="F155">
-        <v>15.03367763067658</v>
+        <v>22.39472060729102</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>17.47535221516101</v>
+        <v>2.667206732709776</v>
       </c>
       <c r="C156">
-        <v>19.23548899353366</v>
+        <v>19.5496047882298</v>
       </c>
       <c r="D156">
-        <v>30.4548902841142</v>
+        <v>12.8586891020659</v>
       </c>
       <c r="E156">
-        <v>17.46542552416125</v>
+        <v>22.85952783280938</v>
       </c>
       <c r="F156">
-        <v>15.00818219149491</v>
+        <v>22.38454127052281</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>17.3996433702217</v>
+        <v>2.647119177647954</v>
       </c>
       <c r="C157">
-        <v>19.19774220530815</v>
+        <v>19.51822155001013</v>
       </c>
       <c r="D157">
-        <v>30.36464938315722</v>
+        <v>12.84379439374305</v>
       </c>
       <c r="E157">
-        <v>17.39035594271697</v>
+        <v>22.85179633622135</v>
       </c>
       <c r="F157">
-        <v>14.98271377559301</v>
+        <v>22.37436204524531</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>17.32407012865715</v>
+        <v>2.627127212599766</v>
       </c>
       <c r="C158">
-        <v>19.1600282974353</v>
+        <v>19.48684494469547</v>
       </c>
       <c r="D158">
-        <v>30.2744611221732</v>
+        <v>12.82890440222421</v>
       </c>
       <c r="E158">
-        <v>17.31539516624219</v>
+        <v>22.84406547519915</v>
       </c>
       <c r="F158">
-        <v>14.95727238021485</v>
+        <v>22.36418293269692</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>17.24863273492391</v>
+        <v>2.607231283912133</v>
       </c>
       <c r="C159">
-        <v>19.12234728479741</v>
+        <v>19.45547500887373</v>
       </c>
       <c r="D159">
-        <v>30.18432558552234</v>
+        <v>12.81401913636012</v>
       </c>
       <c r="E159">
-        <v>17.24054346248382</v>
+        <v>22.8363352559249</v>
       </c>
       <c r="F159">
-        <v>14.93185800188597</v>
+        <v>22.35400393393762</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>17.17333143220011</v>
+        <v>2.587431809674826</v>
       </c>
       <c r="C160">
-        <v>19.08469918173075</v>
+        <v>19.4241117761024</v>
       </c>
       <c r="D160">
-        <v>30.09424285601125</v>
+        <v>12.79913860479209</v>
       </c>
       <c r="E160">
-        <v>17.16580110089352</v>
+        <v>22.82860568419877</v>
       </c>
       <c r="F160">
-        <v>14.90647063654064</v>
+        <v>22.34382504991686</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>17.09816646216397</v>
+        <v>2.567729178986056</v>
       </c>
       <c r="C161">
-        <v>19.04708400212721</v>
+        <v>19.39275527898334</v>
       </c>
       <c r="D161">
-        <v>30.00421301510487</v>
+        <v>12.78426281584704</v>
       </c>
       <c r="E161">
-        <v>17.09116835260248</v>
+        <v>22.82087676523965</v>
       </c>
       <c r="F161">
-        <v>14.88111027949884</v>
+        <v>22.33364628147767</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>17.02313806562247</v>
+        <v>2.548123755468269</v>
       </c>
       <c r="C162">
-        <v>19.00950175943269</v>
+        <v>19.36140554782096</v>
       </c>
       <c r="D162">
-        <v>29.91423614382149</v>
+        <v>12.76939177766952</v>
       </c>
       <c r="E162">
-        <v>17.01664549052659</v>
+        <v>22.8131485038542</v>
       </c>
       <c r="F162">
-        <v>14.85577692568847</v>
+        <v>22.32346762936249</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>16.94824648238445</v>
+        <v>2.528615876569421</v>
       </c>
       <c r="C163">
-        <v>18.97195246675589</v>
+        <v>19.33006261193266</v>
       </c>
       <c r="D163">
-        <v>29.82431232141975</v>
+        <v>12.75452549819144</v>
       </c>
       <c r="E163">
-        <v>16.94223278934315</v>
+        <v>22.80542090445105</v>
       </c>
       <c r="F163">
-        <v>14.83047056942296</v>
+        <v>22.31328909420967</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>16.87349195167333</v>
+        <v>2.509205856618488</v>
       </c>
       <c r="C164">
-        <v>18.93443613684378</v>
+        <v>19.29872649915037</v>
       </c>
       <c r="D164">
-        <v>29.73444162707409</v>
+        <v>12.73966398520031</v>
       </c>
       <c r="E164">
-        <v>16.86793052557774</v>
+        <v>22.79769397104875</v>
       </c>
       <c r="F164">
-        <v>14.80519120466618</v>
+        <v>22.30311067664692</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>16.79887471205818</v>
+        <v>2.489893986263944</v>
       </c>
       <c r="C165">
-        <v>18.89695278219356</v>
+        <v>19.26739723647428</v>
       </c>
       <c r="D165">
-        <v>29.64462413913242</v>
+        <v>12.72480724632053</v>
       </c>
       <c r="E165">
-        <v>16.79373897759476</v>
+        <v>22.78996770744539</v>
       </c>
       <c r="F165">
-        <v>14.77993882515862</v>
+        <v>22.29293237716568</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>16.72439500209319</v>
+        <v>2.470680535037296</v>
       </c>
       <c r="C166">
-        <v>18.85950241500926</v>
+        <v>19.23607484968495</v>
       </c>
       <c r="D166">
-        <v>29.55485993490386</v>
+        <v>12.70995528908007</v>
       </c>
       <c r="E166">
-        <v>16.71965842566334</v>
+        <v>22.78224211698355</v>
       </c>
       <c r="F166">
-        <v>14.7547134238787</v>
+        <v>22.28275419624858</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>16.65005305985161</v>
+        <v>2.451565751011282</v>
       </c>
       <c r="C167">
-        <v>18.82208504730546</v>
+        <v>19.20475936407006</v>
       </c>
       <c r="D167">
-        <v>29.4651490917596</v>
+        <v>12.69510812086513</v>
       </c>
       <c r="E167">
-        <v>16.64568915196017</v>
+        <v>22.77451720291356</v>
       </c>
       <c r="F167">
-        <v>14.72951499388314</v>
+        <v>22.27257613431557</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>16.5758491233034</v>
+        <v>2.432549862676298</v>
       </c>
       <c r="C168">
-        <v>18.78470069082714</v>
+        <v>19.17345080392323</v>
       </c>
       <c r="D168">
-        <v>29.37549168629731</v>
+        <v>12.68026574899601</v>
       </c>
       <c r="E168">
-        <v>16.57183144061479</v>
+        <v>22.7667929680938</v>
       </c>
       <c r="F168">
-        <v>14.70434352781777</v>
+        <v>22.26239819170976</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>16.50178343112442</v>
+        <v>2.413633078717087</v>
       </c>
       <c r="C169">
-        <v>18.74734935723262</v>
+        <v>19.14214919300689</v>
       </c>
       <c r="D169">
-        <v>29.28588779488179</v>
+        <v>12.66542818067859</v>
       </c>
       <c r="E169">
-        <v>16.49808557771975</v>
+        <v>22.75906941524209</v>
       </c>
       <c r="F169">
-        <v>14.6791990178396</v>
+        <v>22.25222036876488</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>16.42785622130122</v>
+        <v>2.394815590982534</v>
       </c>
       <c r="C170">
-        <v>18.71003105802988</v>
+        <v>19.11085455450572</v>
       </c>
       <c r="D170">
-        <v>29.1963374936983</v>
+        <v>12.65059542306411</v>
       </c>
       <c r="E170">
-        <v>16.42445185139888</v>
+        <v>22.75134654684924</v>
       </c>
       <c r="F170">
-        <v>14.6540814561107</v>
+        <v>22.24204266575615</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>16.35406773253185</v>
+        <v>2.376097572906639</v>
       </c>
       <c r="C171">
-        <v>18.6727458044371</v>
+        <v>19.07956691098022</v>
       </c>
       <c r="D171">
-        <v>29.10684085859396</v>
+        <v>12.63576748322299</v>
       </c>
       <c r="E171">
-        <v>16.350930551771</v>
+        <v>22.74362436520592</v>
       </c>
       <c r="F171">
-        <v>14.62899083443701</v>
+        <v>22.23186508293378</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>16.28041820429403</v>
+        <v>2.357479180173163</v>
       </c>
       <c r="C172">
-        <v>18.63549360779327</v>
+        <v>19.0482862846661</v>
       </c>
       <c r="D172">
-        <v>29.01739796547313</v>
+        <v>12.62094436817506</v>
       </c>
       <c r="E172">
-        <v>16.27752197100667</v>
+        <v>22.73590287246201</v>
       </c>
       <c r="F172">
-        <v>14.60392714437683</v>
+        <v>22.22168762052378</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>16.20690787547427</v>
+        <v>2.338960555641631</v>
       </c>
       <c r="C173">
-        <v>18.59827447927786</v>
+        <v>19.01701269727986</v>
       </c>
       <c r="D173">
-        <v>28.92800889007899</v>
+        <v>12.60612608488232</v>
       </c>
       <c r="E173">
-        <v>16.20422640340674</v>
+        <v>22.72818207059862</v>
       </c>
       <c r="F173">
-        <v>14.57889037737004</v>
+        <v>22.21151027872785</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>16.13353698636431</v>
+        <v>2.320541824133377</v>
       </c>
       <c r="C174">
-        <v>18.56108842978739</v>
+        <v>18.98574617028219</v>
       </c>
       <c r="D174">
-        <v>28.83867370815907</v>
+        <v>12.59131264028115</v>
       </c>
       <c r="E174">
-        <v>16.13104414529072</v>
+        <v>22.72046196148577</v>
       </c>
       <c r="F174">
-        <v>14.55388052461315</v>
+        <v>22.20133305772644</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>16.06030577768618</v>
+        <v>2.302223094737424</v>
       </c>
       <c r="C175">
-        <v>18.52393547042834</v>
+        <v>18.95448672476601</v>
       </c>
       <c r="D175">
-        <v>28.74939249562963</v>
+        <v>12.57650404125715</v>
       </c>
       <c r="E175">
-        <v>16.05797549513102</v>
+        <v>22.71274254683971</v>
       </c>
       <c r="F175">
-        <v>14.52889757716971</v>
+        <v>22.1911559576861</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>15.98721449041426</v>
+        <v>2.284004465896661</v>
       </c>
       <c r="C176">
-        <v>18.48681561214523</v>
+        <v>18.92323438163238</v>
       </c>
       <c r="D176">
-        <v>28.66016532828256</v>
+        <v>12.56170029465452</v>
       </c>
       <c r="E176">
-        <v>15.98502075357887</v>
+        <v>22.70502382830098</v>
       </c>
       <c r="F176">
-        <v>14.50394152596212</v>
+        <v>22.18097897876022</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>15.91426336670039</v>
+        <v>2.265886019077712</v>
       </c>
       <c r="C177">
-        <v>18.44972886570222</v>
+        <v>18.89198916148077</v>
       </c>
       <c r="D177">
-        <v>28.57099228226344</v>
+        <v>12.54690140733441</v>
       </c>
       <c r="E177">
-        <v>15.91218022335964</v>
+        <v>22.69730580738258</v>
       </c>
       <c r="F177">
-        <v>14.47901236172344</v>
+        <v>22.17080212107808</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>15.84145264935787</v>
+        <v>2.247867822352761</v>
       </c>
       <c r="C178">
-        <v>18.41267524200622</v>
+        <v>18.86075108480543</v>
       </c>
       <c r="D178">
-        <v>28.48187343380787</v>
+        <v>12.53210738609604</v>
       </c>
       <c r="E178">
-        <v>15.83945420943665</v>
+        <v>22.68958848550903</v>
       </c>
       <c r="F178">
-        <v>14.45411007512384</v>
+        <v>22.16062538476984</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>15.7687825819384</v>
+        <v>2.229949933164437</v>
       </c>
       <c r="C179">
-        <v>18.37565475185944</v>
+        <v>18.8295201718454</v>
       </c>
       <c r="D179">
-        <v>28.39280885930556</v>
+        <v>12.51731823771191</v>
       </c>
       <c r="E179">
-        <v>15.76684301897165</v>
+        <v>22.68187186402844</v>
       </c>
       <c r="F179">
-        <v>14.42923465669155</v>
+        <v>22.15044876994023</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>15.69625340909836</v>
+        <v>2.212132394344362</v>
       </c>
       <c r="C180">
-        <v>18.33866740599775</v>
+        <v>18.79829644276045</v>
       </c>
       <c r="D180">
-        <v>28.30379863551905</v>
+        <v>12.50253396898831</v>
       </c>
       <c r="E180">
-        <v>15.69434696130141</v>
+        <v>22.67415594418809</v>
       </c>
       <c r="F180">
-        <v>14.40438609681071</v>
+        <v>22.14027227669282</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>15.62386537635635</v>
+        <v>2.194415237112346</v>
       </c>
       <c r="C181">
-        <v>18.30171321520972</v>
+        <v>18.76707991754959</v>
       </c>
       <c r="D181">
-        <v>28.21484283937903</v>
+        <v>12.48775458667087</v>
       </c>
       <c r="E181">
-        <v>15.62196634803725</v>
+        <v>22.66644072718384</v>
       </c>
       <c r="F181">
-        <v>14.37956438582903</v>
+        <v>22.13009590511775</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>15.55161873018696</v>
+        <v>2.176798481918682</v>
       </c>
       <c r="C182">
-        <v>18.26479219024856</v>
+        <v>18.73587061610841</v>
       </c>
       <c r="D182">
-        <v>28.12594154821042</v>
+        <v>12.47298009749625</v>
       </c>
       <c r="E182">
-        <v>15.54970149303572</v>
+        <v>22.65872621412639</v>
       </c>
       <c r="F182">
-        <v>14.35476951395513</v>
+        <v>22.1199196552976</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>15.47951371828663</v>
+        <v>2.159282136796863</v>
       </c>
       <c r="C183">
-        <v>18.22790434186007</v>
+        <v>18.70466855825669</v>
       </c>
       <c r="D183">
-        <v>28.03709483967213</v>
+        <v>12.45821050822062</v>
       </c>
       <c r="E183">
-        <v>15.47755271241478</v>
+        <v>22.65101240607808</v>
       </c>
       <c r="F183">
-        <v>14.33000147131753</v>
+        <v>22.10974352730825</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>15.40755058926477</v>
+        <v>2.14186619942957</v>
       </c>
       <c r="C184">
-        <v>18.1910496808198</v>
+        <v>18.6734737637226</v>
       </c>
       <c r="D184">
-        <v>27.94830279176345</v>
+        <v>12.44344582556439</v>
       </c>
       <c r="E184">
-        <v>15.40552032459993</v>
+        <v>22.64329930403692</v>
       </c>
       <c r="F184">
-        <v>14.30526024799216</v>
+        <v>22.0995675212199</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>15.33572959288828</v>
+        <v>2.124550657318816</v>
       </c>
       <c r="C185">
-        <v>18.15422821789758</v>
+        <v>18.64228625219561</v>
       </c>
       <c r="D185">
-        <v>27.85956548294665</v>
+        <v>12.42868605624814</v>
       </c>
       <c r="E185">
-        <v>15.33360465032145</v>
+        <v>22.6355869089542</v>
       </c>
       <c r="F185">
-        <v>14.28054583394375</v>
+        <v>22.08939163709751</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>15.26405098020261</v>
+        <v>2.107335486653034</v>
       </c>
       <c r="C186">
-        <v>18.11743996387683</v>
+        <v>18.61110604330322</v>
       </c>
       <c r="D186">
-        <v>27.77088299206617</v>
+        <v>12.41393120699686</v>
       </c>
       <c r="E186">
-        <v>15.26180601262613</v>
+        <v>22.6278752217331</v>
       </c>
       <c r="F186">
-        <v>14.25585821910085</v>
+        <v>22.07921587500042</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>15.19251500322257</v>
+        <v>2.090220654556139</v>
       </c>
       <c r="C187">
-        <v>18.08068492958874</v>
+        <v>18.57993315665898</v>
       </c>
       <c r="D187">
-        <v>27.68225539844546</v>
+        <v>12.3991812845239</v>
       </c>
       <c r="E187">
-        <v>15.19012473692174</v>
+        <v>22.62016424323048</v>
       </c>
       <c r="F187">
-        <v>14.23119739332396</v>
+        <v>22.06904023498626</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>15.12112191531413</v>
+        <v>2.073206118710411</v>
       </c>
       <c r="C188">
-        <v>18.04396312586015</v>
+        <v>18.54876761183302</v>
       </c>
       <c r="D188">
-        <v>27.59368278190206</v>
+        <v>12.38443629554564</v>
       </c>
       <c r="E188">
-        <v>15.11856115096838</v>
+        <v>22.61245397426967</v>
       </c>
       <c r="F188">
-        <v>14.20656334640637</v>
+        <v>22.05886471710534</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>15.04987197109068</v>
+        <v>2.056291825962859</v>
       </c>
       <c r="C189">
-        <v>18.00727456354706</v>
+        <v>18.51760942840501</v>
       </c>
       <c r="D189">
-        <v>27.5051652227024</v>
+        <v>12.36969624678122</v>
       </c>
       <c r="E189">
-        <v>15.047115584894</v>
+        <v>22.60474441562746</v>
       </c>
       <c r="F189">
-        <v>14.18195606810791</v>
+        <v>22.04868932140779</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>14.97876542630073</v>
+        <v>2.039477715387374</v>
       </c>
       <c r="C190">
-        <v>17.97061925356267</v>
+        <v>18.48645862590241</v>
       </c>
       <c r="D190">
-        <v>27.41670280169186</v>
+        <v>12.35496114494444</v>
       </c>
       <c r="E190">
-        <v>14.97578837123794</v>
+        <v>22.59703556805634</v>
       </c>
       <c r="F190">
-        <v>14.15737554813342</v>
+        <v>22.03851404793882</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>14.90780253810231</v>
+        <v>2.022763717005944</v>
       </c>
       <c r="C191">
-        <v>17.93399720682386</v>
+        <v>18.45531522390538</v>
       </c>
       <c r="D191">
-        <v>27.32829560022438</v>
+        <v>12.34023099675818</v>
       </c>
       <c r="E191">
-        <v>14.90457984493781</v>
+        <v>22.58932743226775</v>
       </c>
       <c r="F191">
-        <v>14.13282177614193</v>
+        <v>22.02833889674077</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>14.83698356492943</v>
+        <v>2.00614975094834</v>
       </c>
       <c r="C192">
-        <v>17.89740843429052</v>
+        <v>18.42417924201238</v>
       </c>
       <c r="D192">
-        <v>27.23994370021237</v>
+        <v>12.32550580895057</v>
       </c>
       <c r="E192">
-        <v>14.83349034335386</v>
+        <v>22.58162000895018</v>
       </c>
       <c r="F192">
-        <v>14.10829474176822</v>
+        <v>22.0181638678541</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>14.76630876649084</v>
+        <v>1.989635730110562</v>
       </c>
       <c r="C193">
-        <v>17.86085294697446</v>
+        <v>18.39305069976397</v>
       </c>
       <c r="D193">
-        <v>27.15164718417224</v>
+        <v>12.3107855882416</v>
       </c>
       <c r="E193">
-        <v>14.76252020629881</v>
+        <v>22.57391329876192</v>
       </c>
       <c r="F193">
-        <v>14.08379443459499</v>
+        <v>22.00798896131638</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>14.6957784039232</v>
+        <v>1.973221558834182</v>
       </c>
       <c r="C194">
-        <v>17.82433075591163</v>
+        <v>18.36192961676941</v>
       </c>
       <c r="D194">
-        <v>27.06340613518292</v>
+        <v>12.29607034136812</v>
       </c>
       <c r="E194">
-        <v>14.69166977603397</v>
+        <v>22.56620730233566</v>
       </c>
       <c r="F194">
-        <v>14.05932084418266</v>
+        <v>21.99781417716353</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>14.62539273969855</v>
+        <v>1.956907132698154</v>
       </c>
       <c r="C195">
-        <v>17.78784187218771</v>
+        <v>18.33081601271622</v>
       </c>
       <c r="D195">
-        <v>26.97522063696848</v>
+        <v>12.28136007507076</v>
       </c>
       <c r="E195">
-        <v>14.62093939729549</v>
+        <v>22.55850202028168</v>
       </c>
       <c r="F195">
-        <v>14.03487396006665</v>
+        <v>21.98763951542945</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>14.55515203764125</v>
+        <v>1.940692340182924</v>
       </c>
       <c r="C196">
-        <v>17.75138630693742</v>
+        <v>18.2997099072679</v>
       </c>
       <c r="D196">
-        <v>26.8870907738731</v>
+        <v>12.26665479608562</v>
       </c>
       <c r="E196">
-        <v>14.55032941731255</v>
+        <v>22.55079745318461</v>
       </c>
       <c r="F196">
-        <v>14.01045377174006</v>
+        <v>21.97746497614683</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>14.48505656304471</v>
+        <v>1.924577061876406</v>
       </c>
       <c r="C197">
-        <v>17.7149640713355</v>
+        <v>18.26861132005689</v>
       </c>
       <c r="D197">
-        <v>26.7990166308824</v>
+        <v>12.25195451116508</v>
       </c>
       <c r="E197">
-        <v>14.4798401858124</v>
+        <v>22.54309360161574</v>
       </c>
       <c r="F197">
-        <v>13.98606026868763</v>
+        <v>21.96729055934724</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>14.41510658256785</v>
+        <v>1.908561170434719</v>
       </c>
       <c r="C198">
-        <v>17.67857517661118</v>
+        <v>18.23752027088865</v>
       </c>
       <c r="D198">
-        <v>26.71099829366407</v>
+        <v>12.23725922706538</v>
       </c>
       <c r="E198">
-        <v>14.40947205504599</v>
+        <v>22.53539046612946</v>
       </c>
       <c r="F198">
-        <v>13.96169344036733</v>
+        <v>21.95711626505982</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>14.34530236429361</v>
+        <v>1.892644531706024</v>
       </c>
       <c r="C199">
-        <v>17.64221963404629</v>
+        <v>18.20643677957147</v>
       </c>
       <c r="D199">
-        <v>26.6230358485451</v>
+        <v>12.22256895054564</v>
       </c>
       <c r="E199">
-        <v>14.3392253798008</v>
+        <v>22.52768804724541</v>
       </c>
       <c r="F199">
-        <v>13.93735327621242</v>
+        <v>21.94694209331331</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>14.27564417779583</v>
+        <v>1.876827004205051</v>
       </c>
       <c r="C200">
-        <v>17.60589745496655</v>
+        <v>18.17536086585099</v>
       </c>
       <c r="D200">
-        <v>26.5351293825643</v>
+        <v>12.20788368837634</v>
       </c>
       <c r="E200">
-        <v>14.26910051740662</v>
+        <v>22.51998634548632</v>
       </c>
       <c r="F200">
-        <v>13.91303976564728</v>
+        <v>21.93676804413659</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>14.20613229404083</v>
+        <v>1.861108439087048</v>
       </c>
       <c r="C201">
-        <v>17.56960865076049</v>
+        <v>18.14429254964465</v>
       </c>
       <c r="D201">
-        <v>26.4472789834624</v>
+        <v>12.1932034473344</v>
       </c>
       <c r="E201">
-        <v>14.19909782776621</v>
+        <v>22.51228536136112</v>
       </c>
       <c r="F201">
-        <v>13.88875289807583</v>
+        <v>21.92659411755711</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>14.13676698548711</v>
+        <v>1.845488681121243</v>
       </c>
       <c r="C202">
-        <v>17.53335323287189</v>
+        <v>18.11323185088602</v>
       </c>
       <c r="D202">
-        <v>26.35948473968747</v>
+        <v>12.17852823420381</v>
       </c>
       <c r="E202">
-        <v>14.12921767336072</v>
+        <v>22.50458509535643</v>
       </c>
       <c r="F202">
-        <v>13.86449266288899</v>
+        <v>21.91642031359866</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>14.06754852608553</v>
+        <v>1.829967568175145</v>
       </c>
       <c r="C203">
-        <v>17.49713121278974</v>
+        <v>18.08217878952843</v>
       </c>
       <c r="D203">
-        <v>26.27174674045768</v>
+        <v>12.16385805577809</v>
       </c>
       <c r="E203">
-        <v>14.05946041925835</v>
+        <v>22.49688554793446</v>
       </c>
       <c r="F203">
-        <v>13.84025904946989</v>
+        <v>21.90624663228843</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>13.99847719121362</v>
+        <v>1.814544931246835</v>
       </c>
       <c r="C204">
-        <v>17.46094260207226</v>
+        <v>18.05113338560138</v>
       </c>
       <c r="D204">
-        <v>26.18406507574538</v>
+        <v>12.14919291885902</v>
       </c>
       <c r="E204">
-        <v>13.98982643314496</v>
+        <v>22.48918671957041</v>
       </c>
       <c r="F204">
-        <v>13.81605204718483</v>
+        <v>21.89607307365209</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>13.92955325779227</v>
+        <v>1.799220595322076</v>
       </c>
       <c r="C205">
-        <v>17.42478741233357</v>
+        <v>18.02009565919681</v>
       </c>
       <c r="D205">
-        <v>26.09643983625904</v>
+        <v>12.1345328302562</v>
       </c>
       <c r="E205">
-        <v>13.9203160853272</v>
+        <v>22.48148861072277</v>
       </c>
       <c r="F205">
-        <v>13.79187164539737</v>
+        <v>21.88589963771231</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>13.86077700423058</v>
+        <v>1.783994378869919</v>
       </c>
       <c r="C206">
-        <v>17.38866565523909</v>
+        <v>17.98906563045838</v>
       </c>
       <c r="D206">
-        <v>26.00887111347513</v>
+        <v>12.11987779678993</v>
       </c>
       <c r="E206">
-        <v>13.85092974874365</v>
+        <v>22.47379122181542</v>
       </c>
       <c r="F206">
-        <v>13.76771783346287</v>
+        <v>21.87572632449278</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>13.7921487104122</v>
+        <v>1.768866093974989</v>
       </c>
       <c r="C207">
-        <v>17.35257734252298</v>
+        <v>17.95804331958914</v>
       </c>
       <c r="D207">
-        <v>25.921358999728</v>
+        <v>12.10522782528913</v>
       </c>
       <c r="E207">
-        <v>13.78166779899232</v>
+        <v>22.46609455328758</v>
       </c>
       <c r="F207">
-        <v>13.74359060072592</v>
+        <v>21.86555313401735</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>13.72366865777423</v>
+        <v>1.753835546981505</v>
       </c>
       <c r="C208">
-        <v>17.31652248597797</v>
+        <v>17.92702874686331</v>
       </c>
       <c r="D208">
-        <v>25.83390358814797</v>
+        <v>12.09058292259067</v>
       </c>
       <c r="E208">
-        <v>13.71253061433397</v>
+        <v>22.45839860556386</v>
       </c>
       <c r="F208">
-        <v>13.71948993653218</v>
+        <v>21.85538006630875</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>13.65533712925902</v>
+        <v>1.738902538103675</v>
       </c>
       <c r="C209">
-        <v>17.28050109745472</v>
+        <v>17.89602193261807</v>
       </c>
       <c r="D209">
-        <v>25.74650497262185</v>
+        <v>12.07594309554311</v>
       </c>
       <c r="E209">
-        <v>13.64351857570559</v>
+        <v>22.45070337905596</v>
       </c>
       <c r="F209">
-        <v>13.69541583022077</v>
+        <v>21.84520712138837</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>13.58715440931224</v>
+        <v>1.724066861622341</v>
       </c>
       <c r="C210">
-        <v>17.24451318887076</v>
+        <v>17.86502289724532</v>
       </c>
       <c r="D210">
-        <v>25.65916324789177</v>
+        <v>12.06130835100378</v>
       </c>
       <c r="E210">
-        <v>13.57463206674398</v>
+        <v>22.443008874164</v>
       </c>
       <c r="F210">
-        <v>13.67136827112644</v>
+        <v>21.83503429927857</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>13.51912078394304</v>
+        <v>1.70932830631358</v>
       </c>
       <c r="C211">
-        <v>17.20855877220549</v>
+        <v>17.83403166122222</v>
       </c>
       <c r="D211">
-        <v>25.57187850959616</v>
+        <v>12.04667869583875</v>
       </c>
       <c r="E211">
-        <v>13.5058714737895</v>
+        <v>22.43531509128841</v>
       </c>
       <c r="F211">
-        <v>13.64734724858582</v>
+        <v>21.82486160000097</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>13.45123654067412</v>
+        <v>1.694686655191999</v>
       </c>
       <c r="C212">
-        <v>17.17263785950027</v>
+        <v>17.80304824509318</v>
       </c>
       <c r="D212">
-        <v>25.48465085421548</v>
+        <v>12.03205413692558</v>
       </c>
       <c r="E212">
-        <v>13.43723718590177</v>
+        <v>22.42762203082006</v>
       </c>
       <c r="F212">
-        <v>13.62335275193137</v>
+        <v>21.81468902357661</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>13.38350196855648</v>
+        <v>1.680141685730868</v>
       </c>
       <c r="C213">
-        <v>17.13675046286361</v>
+        <v>17.77207266945302</v>
       </c>
       <c r="D213">
-        <v>25.39748037904001</v>
+        <v>12.01743468115112</v>
       </c>
       <c r="E213">
-        <v>13.3687295948799</v>
+        <v>22.41992969313919</v>
       </c>
       <c r="F213">
-        <v>13.59938477049691</v>
+        <v>21.80451657002657</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>13.31591735820723</v>
+        <v>1.665693170148822</v>
       </c>
       <c r="C214">
-        <v>17.10089659446818</v>
+        <v>17.74110495498531</v>
       </c>
       <c r="D214">
-        <v>25.31036718228951</v>
+        <v>12.00282033541203</v>
       </c>
       <c r="E214">
-        <v>13.30034909526551</v>
+        <v>22.41223807862472</v>
       </c>
       <c r="F214">
-        <v>13.57544329361803</v>
+        <v>21.7943442393717</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>13.2484830017607</v>
+        <v>1.651340875228026</v>
       </c>
       <c r="C215">
-        <v>17.06507626655059</v>
+        <v>17.71014512244634</v>
       </c>
       <c r="D215">
-        <v>25.22331136308866</v>
+        <v>11.98821110661581</v>
       </c>
       <c r="E215">
-        <v>13.23209608436152</v>
+        <v>22.40454718764894</v>
       </c>
       <c r="F215">
-        <v>13.55152831062906</v>
+        <v>21.7841720316326</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>13.18119919290237</v>
+        <v>1.637084562555694</v>
       </c>
       <c r="C216">
-        <v>17.02928949141625</v>
+        <v>17.67919319265653</v>
       </c>
       <c r="D216">
-        <v>25.13631302146222</v>
+        <v>11.97360700168002</v>
       </c>
       <c r="E216">
-        <v>13.16397096224882</v>
+        <v>22.39685702057732</v>
       </c>
       <c r="F216">
-        <v>13.52763981086942</v>
+        <v>21.77399994682955</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>13.11406622687828</v>
+        <v>1.622923988721078</v>
       </c>
       <c r="C217">
-        <v>16.99353628143602</v>
+        <v>17.64824918650734</v>
       </c>
       <c r="D217">
-        <v>25.04937225833239</v>
+        <v>11.95900802753258</v>
       </c>
       <c r="E217">
-        <v>13.09597413178764</v>
+        <v>22.38916757776972</v>
       </c>
       <c r="F217">
-        <v>13.50377778368054</v>
+        <v>21.76382798498301</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>13.04708440045282</v>
+        <v>1.608858905167649</v>
       </c>
       <c r="C218">
-        <v>16.95781664904634</v>
+        <v>17.61731312497467</v>
       </c>
       <c r="D218">
-        <v>24.9624891755789</v>
+        <v>11.9444141911122</v>
       </c>
       <c r="E218">
-        <v>13.02810599864122</v>
+        <v>22.3814788595845</v>
       </c>
       <c r="F218">
-        <v>13.47994221840601</v>
+        <v>21.7536561461133</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>12.98025401196015</v>
+        <v>1.594889058462182</v>
       </c>
       <c r="C219">
-        <v>16.92213060675363</v>
+        <v>17.58638502910543</v>
       </c>
       <c r="D219">
-        <v>24.87566387602169</v>
+        <v>11.92982549936795</v>
       </c>
       <c r="E219">
-        <v>12.96036697128707</v>
+        <v>22.37379086637505</v>
       </c>
       <c r="F219">
-        <v>13.45613310439577</v>
+        <v>21.74348443024003</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>12.91357536128281</v>
+        <v>1.581014190415682</v>
       </c>
       <c r="C220">
-        <v>16.88647816713092</v>
+        <v>17.55546492001835</v>
       </c>
       <c r="D220">
-        <v>24.78889646343871</v>
+        <v>11.91524195925961</v>
       </c>
       <c r="E220">
-        <v>12.89275746101702</v>
+        <v>22.36610359848506</v>
       </c>
       <c r="F220">
-        <v>13.43235043100177</v>
+        <v>21.73331283738334</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>12.84704874982554</v>
+        <v>1.567234037972386</v>
       </c>
       <c r="C221">
-        <v>16.85085934281868</v>
+        <v>17.5245528189145</v>
       </c>
       <c r="D221">
-        <v>24.70218704258459</v>
+        <v>11.90066357775793</v>
       </c>
       <c r="E221">
-        <v>12.82527788196735</v>
+        <v>22.35841705626098</v>
       </c>
       <c r="F221">
-        <v>13.40859418758155</v>
+        <v>21.72314136756317</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>12.7806744805671</v>
+        <v>1.553548333492725</v>
       </c>
       <c r="C222">
-        <v>16.81527414652768</v>
+        <v>17.49364874707109</v>
       </c>
       <c r="D222">
-        <v>24.61553571919269</v>
+        <v>11.88609036184413</v>
       </c>
       <c r="E222">
-        <v>12.75792865112166</v>
+        <v>22.350731240044</v>
       </c>
       <c r="F222">
-        <v>13.38486436350082</v>
+        <v>21.71297002079918</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>12.71445285802354</v>
+        <v>1.539956804808936</v>
       </c>
       <c r="C223">
-        <v>16.77972259103676</v>
+        <v>17.46275272584285</v>
       </c>
       <c r="D223">
-        <v>24.52894259999549</v>
+        <v>11.87152231851037</v>
       </c>
       <c r="E223">
-        <v>12.69071018831345</v>
+        <v>22.34304615016985</v>
       </c>
       <c r="F223">
-        <v>13.36116094813178</v>
+        <v>21.70279879711084</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>12.64838418823654</v>
+        <v>1.526459175160204</v>
       </c>
       <c r="C224">
-        <v>16.74420468919375</v>
+        <v>17.43186477666505</v>
       </c>
       <c r="D224">
-        <v>24.44240779273641</v>
+        <v>11.85695945475994</v>
       </c>
       <c r="E224">
-        <v>12.62362291625798</v>
+        <v>22.3353617869706</v>
       </c>
       <c r="F224">
-        <v>13.33748393084829</v>
+        <v>21.69262769651785</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>12.58246877881378</v>
+        <v>1.513055163470441</v>
       </c>
       <c r="C225">
-        <v>16.70872045391712</v>
+        <v>17.40098492105311</v>
       </c>
       <c r="D225">
-        <v>24.35593140618636</v>
+        <v>11.84240177760673</v>
       </c>
       <c r="E225">
-        <v>12.5566672605501</v>
+        <v>22.32767815077785</v>
       </c>
       <c r="F225">
-        <v>13.31383330103112</v>
+        <v>21.68245671903975</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>12.51670693888954</v>
+        <v>1.499744484358331</v>
       </c>
       <c r="C226">
-        <v>16.67326989819465</v>
+        <v>17.37011318060176</v>
       </c>
       <c r="D226">
-        <v>24.2695135501466</v>
+        <v>11.82784929407576</v>
       </c>
       <c r="E226">
-        <v>12.4898436496694</v>
+        <v>22.31999524191927</v>
       </c>
       <c r="F226">
-        <v>13.29020904807584</v>
+        <v>21.67228586469584</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>12.45109897912343</v>
+        <v>1.48652684811023</v>
       </c>
       <c r="C227">
-        <v>16.63785303508435</v>
+        <v>17.33924957698733</v>
       </c>
       <c r="D227">
-        <v>24.18315433546919</v>
+        <v>11.8133020112032</v>
       </c>
       <c r="E227">
-        <v>12.42315251501091</v>
+        <v>22.31231306071761</v>
       </c>
       <c r="F227">
-        <v>13.26661116138424</v>
+        <v>21.66211513350556</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>12.38564521172752</v>
+        <v>1.473401960949444</v>
       </c>
       <c r="C228">
-        <v>16.60246987771545</v>
+        <v>17.30839413196975</v>
       </c>
       <c r="D228">
-        <v>24.09685387406905</v>
+        <v>11.79875993603608</v>
       </c>
       <c r="E228">
-        <v>12.35659429087654</v>
+        <v>22.3046316074956</v>
       </c>
       <c r="F228">
-        <v>13.2430396303604</v>
+        <v>21.65194452548824</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>12.32034595041057</v>
+        <v>1.460369525012157</v>
       </c>
       <c r="C229">
-        <v>16.56712043928739</v>
+        <v>17.27754686739037</v>
       </c>
       <c r="D229">
-        <v>24.01061227893798</v>
+        <v>11.78422307563269</v>
       </c>
       <c r="E229">
-        <v>12.2901694144805</v>
+        <v>22.29695088257281</v>
       </c>
       <c r="F229">
-        <v>13.21949444441326</v>
+        <v>21.64177404066319</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>12.25520151041061</v>
+        <v>1.447429238357601</v>
       </c>
       <c r="C230">
-        <v>16.53180473307086</v>
+        <v>17.24670780517087</v>
       </c>
       <c r="D230">
-        <v>23.92442966415215</v>
+        <v>11.76969143706247</v>
       </c>
       <c r="E230">
-        <v>12.22387832599626</v>
+        <v>22.28927088626596</v>
       </c>
       <c r="F230">
-        <v>13.19597559297241</v>
+        <v>21.63160367904966</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>12.19021220851294</v>
+        <v>1.434580795207869</v>
       </c>
       <c r="C231">
-        <v>16.49652277240841</v>
+        <v>17.21587696732058</v>
       </c>
       <c r="D231">
-        <v>23.83830614488953</v>
+        <v>11.75516502740587</v>
       </c>
       <c r="E231">
-        <v>12.15772146854133</v>
+        <v>22.28159161888969</v>
       </c>
       <c r="F231">
-        <v>13.17248306547253</v>
+        <v>21.62143344066692</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>12.12537836301976</v>
+        <v>1.421823885915396</v>
       </c>
       <c r="C232">
-        <v>16.46127457071293</v>
+        <v>17.18505437593201</v>
       </c>
       <c r="D232">
-        <v>23.75224183744741</v>
+        <v>11.74064385375476</v>
       </c>
       <c r="E232">
-        <v>12.09169928819583</v>
+        <v>22.27391308075724</v>
       </c>
       <c r="F232">
-        <v>13.14901685135391</v>
+        <v>21.61126332553419</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>12.06070029370668</v>
+        <v>1.409158196945042</v>
       </c>
       <c r="C233">
-        <v>16.42606014146995</v>
+        <v>17.15424005317912</v>
       </c>
       <c r="D233">
-        <v>23.66623685925376</v>
+        <v>11.72612792321229</v>
       </c>
       <c r="E233">
-        <v>12.02581223391416</v>
+        <v>22.26623527217972</v>
       </c>
       <c r="F233">
-        <v>13.12557694006094</v>
+        <v>21.60109333367066</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>11.99617832178162</v>
+        <v>1.3965834112165</v>
       </c>
       <c r="C234">
-        <v>16.39087949823767</v>
+        <v>17.12343402132445</v>
       </c>
       <c r="D234">
-        <v>23.58029132886902</v>
+        <v>11.71161724289296</v>
       </c>
       <c r="E234">
-        <v>11.9600607577403</v>
+        <v>22.2585581934654</v>
       </c>
       <c r="F234">
-        <v>13.10216332105831</v>
+        <v>21.59092346509555</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>11.9318127700984</v>
+        <v>1.38409920800747</v>
       </c>
       <c r="C235">
-        <v>16.35573265464675</v>
+        <v>17.09263630271535</v>
       </c>
       <c r="D235">
-        <v>23.49440536601091</v>
+        <v>11.69711181992231</v>
       </c>
       <c r="E235">
-        <v>11.89444531467151</v>
+        <v>22.25088184492226</v>
       </c>
       <c r="F235">
-        <v>13.0787759838167</v>
+        <v>21.5807537198281</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>11.86760396296297</v>
+        <v>1.371705263078357</v>
       </c>
       <c r="C236">
-        <v>16.32061962439943</v>
+        <v>17.06184691978478</v>
       </c>
       <c r="D236">
-        <v>23.40857909157997</v>
+        <v>11.68261166143718</v>
       </c>
       <c r="E236">
-        <v>11.82896636270677</v>
+        <v>22.24320622685638</v>
       </c>
       <c r="F236">
-        <v>13.05541491781555</v>
+        <v>21.57058409788745</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>11.8035522261686</v>
+        <v>1.359401248468377</v>
       </c>
       <c r="C237">
-        <v>16.28554042126844</v>
+        <v>17.03106589505265</v>
       </c>
       <c r="D237">
-        <v>23.32281262765701</v>
+        <v>11.66811677458631</v>
       </c>
       <c r="E237">
-        <v>11.76362436276152</v>
+        <v>22.23553133957156</v>
       </c>
       <c r="F237">
-        <v>13.03208011254082</v>
+        <v>21.56041459929278</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>11.73965788673505</v>
+        <v>1.347186832986374</v>
       </c>
       <c r="C238">
-        <v>16.25049505910409</v>
+        <v>17.00029325112651</v>
       </c>
       <c r="D238">
-        <v>23.23710609750881</v>
+        <v>11.65362716652972</v>
       </c>
       <c r="E238">
-        <v>11.69841977879072</v>
+        <v>22.22785718337045</v>
       </c>
       <c r="F238">
-        <v>13.00877155749458</v>
+        <v>21.55024522406333</v>
       </c>
     </row>
   </sheetData>
